--- a/transfer/release/0609/CodeReview CheckList v1.11_income-v2.09.340.xlsx
+++ b/transfer/release/0609/CodeReview CheckList v1.11_income-v2.09.340.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProjects\income-configuration-changelog\Deploy-Income\2021\0609\CRQ000000_CRZITP78\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProjects\income-configuration-changelog\Deploy-Income\2021\0609\CRQ000000201172_CRZITP78\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E470D80F-A927-432A-B605-AA72D346E506}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B900488-3666-4AD1-91D3-DA90AA5DCA63}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="17717" windowHeight="9606" tabRatio="812" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2306,11 +2306,11 @@
     <t>N</t>
   </si>
   <si>
-    <t>CRQ000000/ CRZITP-78</t>
+    <t>Chen Duo</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Chen Duo</t>
+    <t>CRQ000000201172/ CRZITP-78</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -2958,45 +2958,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -3027,19 +3027,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3048,6 +3048,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3057,18 +3066,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3087,6 +3087,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3095,9 +3098,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3184,7 +3184,7 @@
                   <a14:compatExt spid="_x0000_s1026"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C9D5B3E-3C14-4098-BC2B-36D3BF855038}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000002040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3205,23 +3205,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3500,8 +3487,8 @@
   </sheetPr>
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.7" x14ac:dyDescent="0.25"/>
@@ -3513,107 +3500,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="28.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="111" t="s">
+      <c r="A2" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="111"/>
-      <c r="C2" s="113" t="s">
+      <c r="B2" s="113"/>
+      <c r="C2" s="117" t="s">
+        <v>429</v>
+      </c>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="113" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="113"/>
+      <c r="C3" s="117" t="s">
+        <v>419</v>
+      </c>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="117"/>
+      <c r="I3" s="117"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="113" t="s">
+        <v>425</v>
+      </c>
+      <c r="B4" s="113"/>
+      <c r="C4" s="117" t="s">
         <v>428</v>
       </c>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="111" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="113" t="s">
-        <v>419</v>
-      </c>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="111" t="s">
-        <v>425</v>
-      </c>
-      <c r="B4" s="111"/>
-      <c r="C4" s="113" t="s">
-        <v>429</v>
-      </c>
-      <c r="D4" s="113"/>
-      <c r="E4" s="113"/>
-      <c r="F4" s="113"/>
-      <c r="G4" s="113"/>
-      <c r="H4" s="113"/>
-      <c r="I4" s="113"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="117"/>
+      <c r="H4" s="117"/>
+      <c r="I4" s="117"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="111" t="s">
+      <c r="A5" s="113" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="111"/>
-      <c r="C5" s="120">
+      <c r="B5" s="113"/>
+      <c r="C5" s="118">
         <v>44340</v>
       </c>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="111" t="s">
+      <c r="A6" s="113" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="111"/>
-      <c r="C6" s="113" t="s">
+      <c r="B6" s="113"/>
+      <c r="C6" s="117" t="s">
         <v>424</v>
       </c>
-      <c r="D6" s="113"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="113"/>
-      <c r="G6" s="113"/>
-      <c r="H6" s="113"/>
-      <c r="I6" s="113"/>
+      <c r="D6" s="117"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="117"/>
+      <c r="H6" s="117"/>
+      <c r="I6" s="117"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="118" t="s">
+      <c r="A7" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="119"/>
-      <c r="C7" s="114">
+      <c r="B7" s="116"/>
+      <c r="C7" s="110">
         <v>1</v>
       </c>
-      <c r="D7" s="115"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="115"/>
-      <c r="H7" s="115"/>
-      <c r="I7" s="116"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="111"/>
+      <c r="H7" s="111"/>
+      <c r="I7" s="112"/>
     </row>
     <row r="9" spans="1:9" ht="29.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="45" t="s">
@@ -3784,20 +3771,26 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="45.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="117" t="s">
+      <c r="A22" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="117"/>
-      <c r="C22" s="117"/>
-      <c r="D22" s="117"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="117"/>
-      <c r="I22" s="117"/>
+      <c r="B22" s="114"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="114"/>
+      <c r="E22" s="114"/>
+      <c r="F22" s="114"/>
+      <c r="G22" s="114"/>
+      <c r="H22" s="114"/>
+      <c r="I22" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C2:I2"/>
     <mergeCell ref="C7:I7"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A22:I22"/>
@@ -3807,12 +3800,6 @@
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
     <mergeCell ref="C6:I6"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="C2:I2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3851,16 +3838,16 @@
       <c r="H1" s="24"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="145" t="s">
+      <c r="A2" s="141" t="s">
         <v>270</v>
       </c>
-      <c r="B2" s="145"/>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="145"/>
+      <c r="B2" s="141"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="141"/>
+      <c r="G2" s="141"/>
+      <c r="H2" s="141"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="75" t="s">
@@ -3878,11 +3865,11 @@
       <c r="E3" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="143" t="s">
+      <c r="F3" s="142" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="143"/>
-      <c r="H3" s="143"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="29">
@@ -3896,9 +3883,9 @@
       <c r="E4" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="140"/>
-      <c r="G4" s="141"/>
-      <c r="H4" s="142"/>
+      <c r="F4" s="143"/>
+      <c r="G4" s="144"/>
+      <c r="H4" s="145"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="29">
@@ -3912,9 +3899,9 @@
       <c r="E5" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="140"/>
-      <c r="G5" s="141"/>
-      <c r="H5" s="142"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="145"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="29">
@@ -3944,21 +3931,21 @@
       <c r="E7" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="140"/>
-      <c r="G7" s="141"/>
-      <c r="H7" s="142"/>
+      <c r="F7" s="143"/>
+      <c r="G7" s="144"/>
+      <c r="H7" s="145"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="145" t="s">
+      <c r="A9" s="141" t="s">
         <v>275</v>
       </c>
-      <c r="B9" s="145"/>
-      <c r="C9" s="145"/>
-      <c r="D9" s="145"/>
-      <c r="E9" s="145"/>
-      <c r="F9" s="145"/>
-      <c r="G9" s="145"/>
-      <c r="H9" s="145"/>
+      <c r="B9" s="141"/>
+      <c r="C9" s="141"/>
+      <c r="D9" s="141"/>
+      <c r="E9" s="141"/>
+      <c r="F9" s="141"/>
+      <c r="G9" s="141"/>
+      <c r="H9" s="141"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="75" t="s">
@@ -3976,11 +3963,11 @@
       <c r="E10" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="143" t="s">
+      <c r="F10" s="142" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="143"/>
-      <c r="H10" s="143"/>
+      <c r="G10" s="142"/>
+      <c r="H10" s="142"/>
     </row>
     <row r="11" spans="1:8" ht="27.35" x14ac:dyDescent="0.25">
       <c r="A11" s="29">
@@ -3994,9 +3981,9 @@
       <c r="E11" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="146"/>
-      <c r="G11" s="146"/>
-      <c r="H11" s="146"/>
+      <c r="F11" s="140"/>
+      <c r="G11" s="140"/>
+      <c r="H11" s="140"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="29">
@@ -4015,16 +4002,16 @@
       <c r="H12" s="152"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="145" t="s">
+      <c r="A14" s="141" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="145"/>
-      <c r="C14" s="145"/>
-      <c r="D14" s="145"/>
-      <c r="E14" s="145"/>
-      <c r="F14" s="145"/>
-      <c r="G14" s="145"/>
-      <c r="H14" s="145"/>
+      <c r="B14" s="141"/>
+      <c r="C14" s="141"/>
+      <c r="D14" s="141"/>
+      <c r="E14" s="141"/>
+      <c r="F14" s="141"/>
+      <c r="G14" s="141"/>
+      <c r="H14" s="141"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="75" t="s">
@@ -4042,11 +4029,11 @@
       <c r="E15" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="143" t="s">
+      <c r="F15" s="142" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="143"/>
-      <c r="H15" s="143"/>
+      <c r="G15" s="142"/>
+      <c r="H15" s="142"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="29">
@@ -4060,9 +4047,9 @@
       <c r="E16" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="140"/>
-      <c r="G16" s="141"/>
-      <c r="H16" s="142"/>
+      <c r="F16" s="143"/>
+      <c r="G16" s="144"/>
+      <c r="H16" s="145"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="29">
@@ -4076,18 +4063,12 @@
       <c r="E17" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="140"/>
-      <c r="G17" s="141"/>
-      <c r="H17" s="142"/>
+      <c r="F17" s="143"/>
+      <c r="G17" s="144"/>
+      <c r="H17" s="145"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="F16:H16"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A9:H9"/>
@@ -4097,6 +4078,12 @@
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="F6:H6"/>
     <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F16:H16"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4120,22 +4107,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="28.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="119" t="s">
         <v>280</v>
       </c>
-      <c r="B1" s="110"/>
+      <c r="B1" s="119"/>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="122" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
     </row>
     <row r="3" spans="1:8" s="23" customFormat="1" ht="15.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="75" t="s">
@@ -4153,11 +4140,11 @@
       <c r="E3" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="153" t="s">
+      <c r="F3" s="154" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="154"/>
-      <c r="H3" s="155"/>
+      <c r="G3" s="155"/>
+      <c r="H3" s="156"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="74">
@@ -4171,9 +4158,9 @@
       <c r="E4" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="134"/>
-      <c r="G4" s="135"/>
-      <c r="H4" s="136"/>
+      <c r="F4" s="133"/>
+      <c r="G4" s="134"/>
+      <c r="H4" s="135"/>
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="74">
@@ -4187,9 +4174,9 @@
       <c r="E5" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="134"/>
-      <c r="G5" s="135"/>
-      <c r="H5" s="136"/>
+      <c r="F5" s="133"/>
+      <c r="G5" s="134"/>
+      <c r="H5" s="135"/>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="74">
@@ -4203,9 +4190,9 @@
       <c r="E6" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="134"/>
-      <c r="G6" s="135"/>
-      <c r="H6" s="136"/>
+      <c r="F6" s="133"/>
+      <c r="G6" s="134"/>
+      <c r="H6" s="135"/>
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="74">
@@ -4219,9 +4206,9 @@
       <c r="E7" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="134"/>
-      <c r="G7" s="135"/>
-      <c r="H7" s="136"/>
+      <c r="F7" s="133"/>
+      <c r="G7" s="134"/>
+      <c r="H7" s="135"/>
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="74">
@@ -4235,9 +4222,9 @@
       <c r="E8" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="134"/>
-      <c r="G8" s="135"/>
-      <c r="H8" s="136"/>
+      <c r="F8" s="133"/>
+      <c r="G8" s="134"/>
+      <c r="H8" s="135"/>
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="74">
@@ -4251,9 +4238,9 @@
       <c r="E9" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="134"/>
-      <c r="G9" s="135"/>
-      <c r="H9" s="136"/>
+      <c r="F9" s="133"/>
+      <c r="G9" s="134"/>
+      <c r="H9" s="135"/>
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="74">
@@ -4267,9 +4254,9 @@
       <c r="E10" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="134"/>
-      <c r="G10" s="135"/>
-      <c r="H10" s="136"/>
+      <c r="F10" s="133"/>
+      <c r="G10" s="134"/>
+      <c r="H10" s="135"/>
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="74">
@@ -4283,9 +4270,9 @@
       <c r="E11" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="134"/>
-      <c r="G11" s="135"/>
-      <c r="H11" s="136"/>
+      <c r="F11" s="133"/>
+      <c r="G11" s="134"/>
+      <c r="H11" s="135"/>
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="74">
@@ -4299,9 +4286,9 @@
       <c r="E12" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="134"/>
-      <c r="G12" s="135"/>
-      <c r="H12" s="136"/>
+      <c r="F12" s="133"/>
+      <c r="G12" s="134"/>
+      <c r="H12" s="135"/>
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="74">
@@ -4315,9 +4302,9 @@
       <c r="E13" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="133"/>
-      <c r="G13" s="133"/>
-      <c r="H13" s="133"/>
+      <c r="F13" s="136"/>
+      <c r="G13" s="136"/>
+      <c r="H13" s="136"/>
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="74">
@@ -4331,9 +4318,9 @@
       <c r="E14" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="133"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="133"/>
+      <c r="F14" s="136"/>
+      <c r="G14" s="136"/>
+      <c r="H14" s="136"/>
     </row>
     <row r="15" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="74">
@@ -4347,9 +4334,9 @@
       <c r="E15" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="133"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="133"/>
+      <c r="F15" s="136"/>
+      <c r="G15" s="136"/>
+      <c r="H15" s="136"/>
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="74">
@@ -4363,9 +4350,9 @@
       <c r="E16" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="133"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="133"/>
+      <c r="F16" s="136"/>
+      <c r="G16" s="136"/>
+      <c r="H16" s="136"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="74">
@@ -4379,9 +4366,9 @@
       <c r="E17" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="133"/>
-      <c r="G17" s="133"/>
-      <c r="H17" s="133"/>
+      <c r="F17" s="136"/>
+      <c r="G17" s="136"/>
+      <c r="H17" s="136"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="74">
@@ -4395,9 +4382,9 @@
       <c r="E18" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F18" s="133"/>
-      <c r="G18" s="133"/>
-      <c r="H18" s="133"/>
+      <c r="F18" s="136"/>
+      <c r="G18" s="136"/>
+      <c r="H18" s="136"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="74">
@@ -4411,9 +4398,9 @@
       <c r="E19" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="133"/>
-      <c r="G19" s="133"/>
-      <c r="H19" s="133"/>
+      <c r="F19" s="136"/>
+      <c r="G19" s="136"/>
+      <c r="H19" s="136"/>
     </row>
     <row r="20" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="74">
@@ -4427,9 +4414,9 @@
       <c r="E20" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="133"/>
-      <c r="G20" s="133"/>
-      <c r="H20" s="133"/>
+      <c r="F20" s="136"/>
+      <c r="G20" s="136"/>
+      <c r="H20" s="136"/>
     </row>
     <row r="21" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="74">
@@ -4443,9 +4430,9 @@
       <c r="E21" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="156"/>
-      <c r="G21" s="156"/>
-      <c r="H21" s="156"/>
+      <c r="F21" s="153"/>
+      <c r="G21" s="153"/>
+      <c r="H21" s="153"/>
     </row>
     <row r="22" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="74">
@@ -4459,9 +4446,9 @@
       <c r="E22" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F22" s="134"/>
-      <c r="G22" s="135"/>
-      <c r="H22" s="136"/>
+      <c r="F22" s="133"/>
+      <c r="G22" s="134"/>
+      <c r="H22" s="135"/>
     </row>
     <row r="23" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="74">
@@ -4475,9 +4462,9 @@
       <c r="E23" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F23" s="134"/>
-      <c r="G23" s="135"/>
-      <c r="H23" s="136"/>
+      <c r="F23" s="133"/>
+      <c r="G23" s="134"/>
+      <c r="H23" s="135"/>
     </row>
     <row r="24" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="74">
@@ -4491,9 +4478,9 @@
       <c r="E24" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="134"/>
-      <c r="G24" s="135"/>
-      <c r="H24" s="136"/>
+      <c r="F24" s="133"/>
+      <c r="G24" s="134"/>
+      <c r="H24" s="135"/>
     </row>
     <row r="25" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="74">
@@ -4507,9 +4494,9 @@
       <c r="E25" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F25" s="134"/>
-      <c r="G25" s="135"/>
-      <c r="H25" s="136"/>
+      <c r="F25" s="133"/>
+      <c r="G25" s="134"/>
+      <c r="H25" s="135"/>
     </row>
     <row r="26" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="74">
@@ -4523,9 +4510,9 @@
       <c r="E26" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="134"/>
-      <c r="G26" s="135"/>
-      <c r="H26" s="136"/>
+      <c r="F26" s="133"/>
+      <c r="G26" s="134"/>
+      <c r="H26" s="135"/>
     </row>
     <row r="27" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="74">
@@ -4539,9 +4526,9 @@
       <c r="E27" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F27" s="134"/>
-      <c r="G27" s="135"/>
-      <c r="H27" s="136"/>
+      <c r="F27" s="133"/>
+      <c r="G27" s="134"/>
+      <c r="H27" s="135"/>
     </row>
     <row r="28" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="74">
@@ -4555,9 +4542,9 @@
       <c r="E28" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="134"/>
-      <c r="G28" s="135"/>
-      <c r="H28" s="136"/>
+      <c r="F28" s="133"/>
+      <c r="G28" s="134"/>
+      <c r="H28" s="135"/>
     </row>
     <row r="29" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="74">
@@ -4571,9 +4558,9 @@
       <c r="E29" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F29" s="134"/>
-      <c r="G29" s="135"/>
-      <c r="H29" s="136"/>
+      <c r="F29" s="133"/>
+      <c r="G29" s="134"/>
+      <c r="H29" s="135"/>
     </row>
     <row r="30" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="74">
@@ -4587,9 +4574,9 @@
       <c r="E30" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F30" s="134"/>
-      <c r="G30" s="135"/>
-      <c r="H30" s="136"/>
+      <c r="F30" s="133"/>
+      <c r="G30" s="134"/>
+      <c r="H30" s="135"/>
     </row>
     <row r="31" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="74">
@@ -4603,9 +4590,9 @@
       <c r="E31" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F31" s="134"/>
-      <c r="G31" s="135"/>
-      <c r="H31" s="136"/>
+      <c r="F31" s="133"/>
+      <c r="G31" s="134"/>
+      <c r="H31" s="135"/>
     </row>
     <row r="32" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="74">
@@ -4619,9 +4606,9 @@
       <c r="E32" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F32" s="133"/>
-      <c r="G32" s="133"/>
-      <c r="H32" s="133"/>
+      <c r="F32" s="136"/>
+      <c r="G32" s="136"/>
+      <c r="H32" s="136"/>
     </row>
     <row r="33" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="74">
@@ -4635,9 +4622,9 @@
       <c r="E33" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F33" s="133"/>
-      <c r="G33" s="133"/>
-      <c r="H33" s="133"/>
+      <c r="F33" s="136"/>
+      <c r="G33" s="136"/>
+      <c r="H33" s="136"/>
     </row>
     <row r="34" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="74">
@@ -4651,9 +4638,9 @@
       <c r="E34" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F34" s="133"/>
-      <c r="G34" s="133"/>
-      <c r="H34" s="133"/>
+      <c r="F34" s="136"/>
+      <c r="G34" s="136"/>
+      <c r="H34" s="136"/>
     </row>
     <row r="35" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="74">
@@ -4667,9 +4654,9 @@
       <c r="E35" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F35" s="133"/>
-      <c r="G35" s="133"/>
-      <c r="H35" s="133"/>
+      <c r="F35" s="136"/>
+      <c r="G35" s="136"/>
+      <c r="H35" s="136"/>
     </row>
     <row r="36" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="74">
@@ -4683,9 +4670,9 @@
       <c r="E36" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F36" s="133"/>
-      <c r="G36" s="133"/>
-      <c r="H36" s="133"/>
+      <c r="F36" s="136"/>
+      <c r="G36" s="136"/>
+      <c r="H36" s="136"/>
     </row>
     <row r="37" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="74">
@@ -4699,9 +4686,9 @@
       <c r="E37" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F37" s="156"/>
-      <c r="G37" s="156"/>
-      <c r="H37" s="156"/>
+      <c r="F37" s="153"/>
+      <c r="G37" s="153"/>
+      <c r="H37" s="153"/>
     </row>
     <row r="38" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="74">
@@ -4715,9 +4702,9 @@
       <c r="E38" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F38" s="133"/>
-      <c r="G38" s="133"/>
-      <c r="H38" s="133"/>
+      <c r="F38" s="136"/>
+      <c r="G38" s="136"/>
+      <c r="H38" s="136"/>
     </row>
     <row r="39" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="74">
@@ -4731,9 +4718,9 @@
       <c r="E39" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F39" s="133"/>
-      <c r="G39" s="133"/>
-      <c r="H39" s="133"/>
+      <c r="F39" s="136"/>
+      <c r="G39" s="136"/>
+      <c r="H39" s="136"/>
     </row>
     <row r="40" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="74">
@@ -4747,9 +4734,9 @@
       <c r="E40" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F40" s="133"/>
-      <c r="G40" s="133"/>
-      <c r="H40" s="133"/>
+      <c r="F40" s="136"/>
+      <c r="G40" s="136"/>
+      <c r="H40" s="136"/>
     </row>
     <row r="41" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="74">
@@ -4763,9 +4750,9 @@
       <c r="E41" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F41" s="156"/>
-      <c r="G41" s="156"/>
-      <c r="H41" s="156"/>
+      <c r="F41" s="153"/>
+      <c r="G41" s="153"/>
+      <c r="H41" s="153"/>
     </row>
     <row r="42" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="74">
@@ -4779,9 +4766,9 @@
       <c r="E42" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F42" s="133"/>
-      <c r="G42" s="133"/>
-      <c r="H42" s="133"/>
+      <c r="F42" s="136"/>
+      <c r="G42" s="136"/>
+      <c r="H42" s="136"/>
     </row>
     <row r="43" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="74">
@@ -4795,9 +4782,9 @@
       <c r="E43" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F43" s="156"/>
-      <c r="G43" s="156"/>
-      <c r="H43" s="156"/>
+      <c r="F43" s="153"/>
+      <c r="G43" s="153"/>
+      <c r="H43" s="153"/>
     </row>
     <row r="44" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="56"/>
@@ -4858,9 +4845,9 @@
       <c r="E48" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F48" s="134"/>
-      <c r="G48" s="135"/>
-      <c r="H48" s="136"/>
+      <c r="F48" s="133"/>
+      <c r="G48" s="134"/>
+      <c r="H48" s="135"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="70">
@@ -4874,9 +4861,9 @@
       <c r="E49" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F49" s="134"/>
-      <c r="G49" s="135"/>
-      <c r="H49" s="136"/>
+      <c r="F49" s="133"/>
+      <c r="G49" s="134"/>
+      <c r="H49" s="135"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="70">
@@ -4890,12 +4877,48 @@
       <c r="E50" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F50" s="134"/>
-      <c r="G50" s="135"/>
-      <c r="H50" s="136"/>
+      <c r="F50" s="133"/>
+      <c r="G50" s="134"/>
+      <c r="H50" s="135"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="F30:H30"/>
     <mergeCell ref="F49:H49"/>
     <mergeCell ref="F50:H50"/>
     <mergeCell ref="F37:H37"/>
@@ -4908,42 +4931,6 @@
     <mergeCell ref="F48:H48"/>
     <mergeCell ref="F42:H42"/>
     <mergeCell ref="F43:H43"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F11:H11"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4968,22 +4955,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="119" t="s">
         <v>324</v>
       </c>
-      <c r="B1" s="110"/>
+      <c r="B1" s="119"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="122" t="s">
         <v>347</v>
       </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="69" t="s">
@@ -5001,11 +4988,11 @@
       <c r="E3" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="122" t="s">
+      <c r="F3" s="121" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="122"/>
-      <c r="H3" s="122"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="121"/>
     </row>
     <row r="4" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="70">
@@ -5536,23 +5523,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="28.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="110"/>
+      <c r="B1" s="119"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="122" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="69" t="s">
@@ -5570,11 +5557,11 @@
       <c r="E3" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="122" t="s">
+      <c r="F3" s="121" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="122"/>
-      <c r="H3" s="122"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="121"/>
       <c r="I3" s="69" t="s">
         <v>28</v>
       </c>
@@ -5591,9 +5578,9 @@
       </c>
       <c r="D4" s="100"/>
       <c r="E4" s="74"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="115"/>
-      <c r="H4" s="116"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="112"/>
       <c r="I4" s="70">
         <v>1</v>
       </c>
@@ -5610,9 +5597,9 @@
       </c>
       <c r="D5" s="100"/>
       <c r="E5" s="74"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="115"/>
-      <c r="H5" s="116"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="111"/>
+      <c r="H5" s="112"/>
       <c r="I5" s="70">
         <v>3</v>
       </c>
@@ -5629,9 +5616,9 @@
       </c>
       <c r="D6" s="100"/>
       <c r="E6" s="74"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="116"/>
+      <c r="F6" s="110"/>
+      <c r="G6" s="111"/>
+      <c r="H6" s="112"/>
       <c r="I6" s="70">
         <v>3</v>
       </c>
@@ -5648,9 +5635,9 @@
       </c>
       <c r="D7" s="100"/>
       <c r="E7" s="79"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="115"/>
-      <c r="H7" s="116"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="111"/>
+      <c r="H7" s="112"/>
       <c r="I7" s="70">
         <v>1</v>
       </c>
@@ -5667,9 +5654,9 @@
         <v>420</v>
       </c>
       <c r="E8" s="78"/>
-      <c r="F8" s="114"/>
-      <c r="G8" s="115"/>
-      <c r="H8" s="116"/>
+      <c r="F8" s="110"/>
+      <c r="G8" s="111"/>
+      <c r="H8" s="112"/>
       <c r="I8" s="70">
         <v>2</v>
       </c>
@@ -5686,9 +5673,9 @@
       </c>
       <c r="D9" s="100"/>
       <c r="E9" s="78"/>
-      <c r="F9" s="114"/>
-      <c r="G9" s="115"/>
-      <c r="H9" s="116"/>
+      <c r="F9" s="110"/>
+      <c r="G9" s="111"/>
+      <c r="H9" s="112"/>
       <c r="I9" s="70">
         <v>3</v>
       </c>
@@ -5705,9 +5692,9 @@
         <v>420</v>
       </c>
       <c r="E10" s="78"/>
-      <c r="F10" s="114"/>
-      <c r="G10" s="115"/>
-      <c r="H10" s="116"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="111"/>
+      <c r="H10" s="112"/>
       <c r="I10" s="70">
         <v>1</v>
       </c>
@@ -5724,9 +5711,9 @@
       </c>
       <c r="D11" s="100"/>
       <c r="E11" s="78"/>
-      <c r="F11" s="114"/>
-      <c r="G11" s="115"/>
-      <c r="H11" s="116"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="111"/>
+      <c r="H11" s="112"/>
       <c r="I11" s="70">
         <v>2</v>
       </c>
@@ -5791,9 +5778,9 @@
       <c r="D15" s="78" t="s">
         <v>421</v>
       </c>
-      <c r="F15" s="114"/>
-      <c r="G15" s="115"/>
-      <c r="H15" s="116"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="111"/>
+      <c r="H15" s="112"/>
       <c r="I15" s="70">
         <v>1</v>
       </c>
@@ -5810,9 +5797,9 @@
       </c>
       <c r="D16" s="78"/>
       <c r="E16" s="74"/>
-      <c r="F16" s="114"/>
-      <c r="G16" s="115"/>
-      <c r="H16" s="116"/>
+      <c r="F16" s="110"/>
+      <c r="G16" s="111"/>
+      <c r="H16" s="112"/>
       <c r="I16" s="70">
         <v>2</v>
       </c>
@@ -5829,9 +5816,9 @@
       </c>
       <c r="D17" s="78"/>
       <c r="E17" s="74"/>
-      <c r="F17" s="114"/>
-      <c r="G17" s="115"/>
-      <c r="H17" s="116"/>
+      <c r="F17" s="110"/>
+      <c r="G17" s="111"/>
+      <c r="H17" s="112"/>
       <c r="I17" s="70">
         <v>3</v>
       </c>
@@ -5848,9 +5835,9 @@
       </c>
       <c r="D18" s="78"/>
       <c r="E18" s="74"/>
-      <c r="F18" s="114"/>
-      <c r="G18" s="115"/>
-      <c r="H18" s="116"/>
+      <c r="F18" s="110"/>
+      <c r="G18" s="111"/>
+      <c r="H18" s="112"/>
       <c r="I18" s="70">
         <v>2</v>
       </c>
@@ -5905,9 +5892,9 @@
       </c>
       <c r="D22" s="97"/>
       <c r="E22" s="79"/>
-      <c r="F22" s="114"/>
-      <c r="G22" s="115"/>
-      <c r="H22" s="116"/>
+      <c r="F22" s="110"/>
+      <c r="G22" s="111"/>
+      <c r="H22" s="112"/>
       <c r="I22" s="70">
         <v>1</v>
       </c>
@@ -5924,9 +5911,9 @@
       </c>
       <c r="D23" s="97"/>
       <c r="E23" s="79"/>
-      <c r="F23" s="114"/>
-      <c r="G23" s="115"/>
-      <c r="H23" s="116"/>
+      <c r="F23" s="110"/>
+      <c r="G23" s="111"/>
+      <c r="H23" s="112"/>
       <c r="I23" s="70">
         <v>1</v>
       </c>
@@ -5943,25 +5930,25 @@
       </c>
       <c r="D24" s="97"/>
       <c r="E24" s="79"/>
-      <c r="F24" s="114"/>
-      <c r="G24" s="115"/>
-      <c r="H24" s="116"/>
+      <c r="F24" s="110"/>
+      <c r="G24" s="111"/>
+      <c r="H24" s="112"/>
       <c r="I24" s="70">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="121" t="s">
+      <c r="A26" s="122" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="121"/>
-      <c r="C26" s="121"/>
-      <c r="D26" s="121"/>
-      <c r="E26" s="121"/>
-      <c r="F26" s="121"/>
-      <c r="G26" s="121"/>
-      <c r="H26" s="121"/>
-      <c r="I26" s="121"/>
+      <c r="B26" s="122"/>
+      <c r="C26" s="122"/>
+      <c r="D26" s="122"/>
+      <c r="E26" s="122"/>
+      <c r="F26" s="122"/>
+      <c r="G26" s="122"/>
+      <c r="H26" s="122"/>
+      <c r="I26" s="122"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="69" t="s">
@@ -5979,11 +5966,11 @@
       <c r="E27" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="F27" s="122" t="s">
+      <c r="F27" s="121" t="s">
         <v>27</v>
       </c>
-      <c r="G27" s="122"/>
-      <c r="H27" s="122"/>
+      <c r="G27" s="121"/>
+      <c r="H27" s="121"/>
       <c r="I27" s="69" t="s">
         <v>28</v>
       </c>
@@ -6000,9 +5987,9 @@
       </c>
       <c r="D28" s="98"/>
       <c r="E28" s="74"/>
-      <c r="F28" s="114"/>
-      <c r="G28" s="115"/>
-      <c r="H28" s="116"/>
+      <c r="F28" s="110"/>
+      <c r="G28" s="111"/>
+      <c r="H28" s="112"/>
       <c r="I28" s="74">
         <v>2</v>
       </c>
@@ -6019,9 +6006,9 @@
       </c>
       <c r="D29" s="98"/>
       <c r="E29" s="70"/>
-      <c r="F29" s="114"/>
-      <c r="G29" s="115"/>
-      <c r="H29" s="116"/>
+      <c r="F29" s="110"/>
+      <c r="G29" s="111"/>
+      <c r="H29" s="112"/>
       <c r="I29" s="70">
         <v>1</v>
       </c>
@@ -6038,9 +6025,9 @@
       </c>
       <c r="D30" s="98"/>
       <c r="E30" s="70"/>
-      <c r="F30" s="114"/>
-      <c r="G30" s="115"/>
-      <c r="H30" s="116"/>
+      <c r="F30" s="110"/>
+      <c r="G30" s="111"/>
+      <c r="H30" s="112"/>
       <c r="I30" s="70">
         <v>2</v>
       </c>
@@ -6057,9 +6044,9 @@
       </c>
       <c r="D31" s="98"/>
       <c r="E31" s="70"/>
-      <c r="F31" s="114"/>
-      <c r="G31" s="115"/>
-      <c r="H31" s="116"/>
+      <c r="F31" s="110"/>
+      <c r="G31" s="111"/>
+      <c r="H31" s="112"/>
       <c r="I31" s="70">
         <v>1</v>
       </c>
@@ -6076,9 +6063,9 @@
       </c>
       <c r="D32" s="98"/>
       <c r="E32" s="70"/>
-      <c r="F32" s="114"/>
-      <c r="G32" s="115"/>
-      <c r="H32" s="116"/>
+      <c r="F32" s="110"/>
+      <c r="G32" s="111"/>
+      <c r="H32" s="112"/>
       <c r="I32" s="70">
         <v>3</v>
       </c>
@@ -6095,9 +6082,9 @@
       </c>
       <c r="D33" s="98"/>
       <c r="E33" s="70"/>
-      <c r="F33" s="114"/>
-      <c r="G33" s="115"/>
-      <c r="H33" s="116"/>
+      <c r="F33" s="110"/>
+      <c r="G33" s="111"/>
+      <c r="H33" s="112"/>
       <c r="I33" s="70">
         <v>3</v>
       </c>
@@ -6114,9 +6101,9 @@
         <v>25</v>
       </c>
       <c r="E34" s="70"/>
-      <c r="F34" s="114"/>
-      <c r="G34" s="115"/>
-      <c r="H34" s="116"/>
+      <c r="F34" s="110"/>
+      <c r="G34" s="111"/>
+      <c r="H34" s="112"/>
       <c r="I34" s="70">
         <v>2</v>
       </c>
@@ -6133,9 +6120,9 @@
       </c>
       <c r="D35" s="98"/>
       <c r="E35" s="70"/>
-      <c r="F35" s="114"/>
-      <c r="G35" s="115"/>
-      <c r="H35" s="116"/>
+      <c r="F35" s="110"/>
+      <c r="G35" s="111"/>
+      <c r="H35" s="112"/>
       <c r="I35" s="70">
         <v>2</v>
       </c>
@@ -6152,9 +6139,9 @@
       </c>
       <c r="D36" s="98"/>
       <c r="E36" s="70"/>
-      <c r="F36" s="114"/>
-      <c r="G36" s="115"/>
-      <c r="H36" s="116"/>
+      <c r="F36" s="110"/>
+      <c r="G36" s="111"/>
+      <c r="H36" s="112"/>
       <c r="I36" s="70">
         <v>1</v>
       </c>
@@ -6171,9 +6158,9 @@
       </c>
       <c r="D37" s="98"/>
       <c r="E37" s="70"/>
-      <c r="F37" s="114"/>
-      <c r="G37" s="115"/>
-      <c r="H37" s="116"/>
+      <c r="F37" s="110"/>
+      <c r="G37" s="111"/>
+      <c r="H37" s="112"/>
       <c r="I37" s="70">
         <v>3</v>
       </c>
@@ -6190,9 +6177,9 @@
       </c>
       <c r="D38" s="98"/>
       <c r="E38" s="70"/>
-      <c r="F38" s="114"/>
-      <c r="G38" s="115"/>
-      <c r="H38" s="116"/>
+      <c r="F38" s="110"/>
+      <c r="G38" s="111"/>
+      <c r="H38" s="112"/>
       <c r="I38" s="70">
         <v>1</v>
       </c>
@@ -6209,9 +6196,9 @@
       </c>
       <c r="D39" s="101"/>
       <c r="E39" s="70"/>
-      <c r="F39" s="114"/>
-      <c r="G39" s="115"/>
-      <c r="H39" s="116"/>
+      <c r="F39" s="110"/>
+      <c r="G39" s="111"/>
+      <c r="H39" s="112"/>
       <c r="I39" s="70">
         <v>1</v>
       </c>
@@ -6228,9 +6215,9 @@
       </c>
       <c r="D40" s="78"/>
       <c r="E40" s="70"/>
-      <c r="F40" s="114"/>
-      <c r="G40" s="115"/>
-      <c r="H40" s="116"/>
+      <c r="F40" s="110"/>
+      <c r="G40" s="111"/>
+      <c r="H40" s="112"/>
       <c r="I40" s="70">
         <v>2</v>
       </c>
@@ -6247,9 +6234,9 @@
       </c>
       <c r="D41" s="78"/>
       <c r="E41" s="70"/>
-      <c r="F41" s="114"/>
-      <c r="G41" s="115"/>
-      <c r="H41" s="116"/>
+      <c r="F41" s="110"/>
+      <c r="G41" s="111"/>
+      <c r="H41" s="112"/>
       <c r="I41" s="70">
         <v>2</v>
       </c>
@@ -6266,9 +6253,9 @@
       </c>
       <c r="D42" s="78"/>
       <c r="E42" s="70"/>
-      <c r="F42" s="114"/>
-      <c r="G42" s="115"/>
-      <c r="H42" s="116"/>
+      <c r="F42" s="110"/>
+      <c r="G42" s="111"/>
+      <c r="H42" s="112"/>
       <c r="I42" s="70">
         <v>2</v>
       </c>
@@ -6285,9 +6272,9 @@
       </c>
       <c r="D43" s="78"/>
       <c r="E43" s="70"/>
-      <c r="F43" s="114"/>
-      <c r="G43" s="115"/>
-      <c r="H43" s="116"/>
+      <c r="F43" s="110"/>
+      <c r="G43" s="111"/>
+      <c r="H43" s="112"/>
       <c r="I43" s="70">
         <v>2</v>
       </c>
@@ -6304,9 +6291,9 @@
       </c>
       <c r="D44" s="78"/>
       <c r="E44" s="70"/>
-      <c r="F44" s="114"/>
-      <c r="G44" s="115"/>
-      <c r="H44" s="116"/>
+      <c r="F44" s="110"/>
+      <c r="G44" s="111"/>
+      <c r="H44" s="112"/>
       <c r="I44" s="70">
         <v>2</v>
       </c>
@@ -6321,17 +6308,17 @@
       <c r="I45" s="19"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="121" t="s">
+      <c r="A46" s="122" t="s">
         <v>64</v>
       </c>
-      <c r="B46" s="121"/>
-      <c r="C46" s="121"/>
-      <c r="D46" s="121"/>
-      <c r="E46" s="121"/>
-      <c r="F46" s="121"/>
-      <c r="G46" s="121"/>
-      <c r="H46" s="121"/>
-      <c r="I46" s="121"/>
+      <c r="B46" s="122"/>
+      <c r="C46" s="122"/>
+      <c r="D46" s="122"/>
+      <c r="E46" s="122"/>
+      <c r="F46" s="122"/>
+      <c r="G46" s="122"/>
+      <c r="H46" s="122"/>
+      <c r="I46" s="122"/>
     </row>
     <row r="47" spans="1:9" ht="14.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="70">
@@ -6345,9 +6332,9 @@
       </c>
       <c r="D47" s="97"/>
       <c r="E47" s="74"/>
-      <c r="F47" s="114"/>
-      <c r="G47" s="115"/>
-      <c r="H47" s="116"/>
+      <c r="F47" s="110"/>
+      <c r="G47" s="111"/>
+      <c r="H47" s="112"/>
       <c r="I47" s="70">
         <v>1</v>
       </c>
@@ -6362,17 +6349,17 @@
       <c r="I48" s="19"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="121" t="s">
+      <c r="A49" s="122" t="s">
         <v>66</v>
       </c>
-      <c r="B49" s="121"/>
-      <c r="C49" s="121"/>
-      <c r="D49" s="121"/>
-      <c r="E49" s="121"/>
-      <c r="F49" s="121"/>
-      <c r="G49" s="121"/>
-      <c r="H49" s="121"/>
-      <c r="I49" s="121"/>
+      <c r="B49" s="122"/>
+      <c r="C49" s="122"/>
+      <c r="D49" s="122"/>
+      <c r="E49" s="122"/>
+      <c r="F49" s="122"/>
+      <c r="G49" s="122"/>
+      <c r="H49" s="122"/>
+      <c r="I49" s="122"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="69" t="s">
@@ -6411,9 +6398,9 @@
       </c>
       <c r="D51" s="97"/>
       <c r="E51" s="70"/>
-      <c r="F51" s="114"/>
-      <c r="G51" s="115"/>
-      <c r="H51" s="116"/>
+      <c r="F51" s="110"/>
+      <c r="G51" s="111"/>
+      <c r="H51" s="112"/>
       <c r="I51" s="70"/>
     </row>
     <row r="52" spans="1:9" ht="14.35" customHeight="1" x14ac:dyDescent="0.25">
@@ -6428,9 +6415,9 @@
       </c>
       <c r="D52" s="97"/>
       <c r="E52" s="70"/>
-      <c r="F52" s="114"/>
-      <c r="G52" s="115"/>
-      <c r="H52" s="116"/>
+      <c r="F52" s="110"/>
+      <c r="G52" s="111"/>
+      <c r="H52" s="112"/>
       <c r="I52" s="70"/>
     </row>
     <row r="53" spans="1:9" ht="14.35" customHeight="1" x14ac:dyDescent="0.25">
@@ -6445,9 +6432,9 @@
       </c>
       <c r="D53" s="97"/>
       <c r="E53" s="70"/>
-      <c r="F53" s="114"/>
-      <c r="G53" s="115"/>
-      <c r="H53" s="116"/>
+      <c r="F53" s="110"/>
+      <c r="G53" s="111"/>
+      <c r="H53" s="112"/>
       <c r="I53" s="70"/>
     </row>
     <row r="54" spans="1:9" ht="14.35" customHeight="1" x14ac:dyDescent="0.25">
@@ -6462,9 +6449,9 @@
       </c>
       <c r="D54" s="97"/>
       <c r="E54" s="70"/>
-      <c r="F54" s="114"/>
-      <c r="G54" s="115"/>
-      <c r="H54" s="116"/>
+      <c r="F54" s="110"/>
+      <c r="G54" s="111"/>
+      <c r="H54" s="112"/>
       <c r="I54" s="70"/>
     </row>
     <row r="55" spans="1:9" ht="14.35" customHeight="1" x14ac:dyDescent="0.25">
@@ -6479,9 +6466,9 @@
       </c>
       <c r="D55" s="97"/>
       <c r="E55" s="70"/>
-      <c r="F55" s="114"/>
-      <c r="G55" s="115"/>
-      <c r="H55" s="116"/>
+      <c r="F55" s="110"/>
+      <c r="G55" s="111"/>
+      <c r="H55" s="112"/>
       <c r="I55" s="70"/>
     </row>
     <row r="56" spans="1:9" ht="29.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -6496,9 +6483,9 @@
       </c>
       <c r="D56" s="97"/>
       <c r="E56" s="70"/>
-      <c r="F56" s="114"/>
-      <c r="G56" s="115"/>
-      <c r="H56" s="116"/>
+      <c r="F56" s="110"/>
+      <c r="G56" s="111"/>
+      <c r="H56" s="112"/>
       <c r="I56" s="70"/>
     </row>
     <row r="57" spans="1:9" ht="14.35" customHeight="1" x14ac:dyDescent="0.25">
@@ -6513,9 +6500,9 @@
       </c>
       <c r="D57" s="97"/>
       <c r="E57" s="70"/>
-      <c r="F57" s="114"/>
-      <c r="G57" s="115"/>
-      <c r="H57" s="116"/>
+      <c r="F57" s="110"/>
+      <c r="G57" s="111"/>
+      <c r="H57" s="112"/>
       <c r="I57" s="70"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -6528,17 +6515,17 @@
       <c r="I58" s="19"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="121" t="s">
+      <c r="A59" s="122" t="s">
         <v>74</v>
       </c>
-      <c r="B59" s="121"/>
-      <c r="C59" s="121"/>
-      <c r="D59" s="121"/>
-      <c r="E59" s="121"/>
-      <c r="F59" s="121"/>
-      <c r="G59" s="121"/>
-      <c r="H59" s="121"/>
-      <c r="I59" s="121"/>
+      <c r="B59" s="122"/>
+      <c r="C59" s="122"/>
+      <c r="D59" s="122"/>
+      <c r="E59" s="122"/>
+      <c r="F59" s="122"/>
+      <c r="G59" s="122"/>
+      <c r="H59" s="122"/>
+      <c r="I59" s="122"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="69" t="s">
@@ -6556,11 +6543,11 @@
       <c r="E60" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="F60" s="122" t="s">
+      <c r="F60" s="121" t="s">
         <v>27</v>
       </c>
-      <c r="G60" s="122"/>
-      <c r="H60" s="122"/>
+      <c r="G60" s="121"/>
+      <c r="H60" s="121"/>
       <c r="I60" s="69" t="s">
         <v>28</v>
       </c>
@@ -6577,9 +6564,9 @@
       </c>
       <c r="D61" s="97"/>
       <c r="E61" s="78"/>
-      <c r="F61" s="114"/>
-      <c r="G61" s="115"/>
-      <c r="H61" s="116"/>
+      <c r="F61" s="110"/>
+      <c r="G61" s="111"/>
+      <c r="H61" s="112"/>
       <c r="I61" s="70"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -6594,9 +6581,9 @@
       </c>
       <c r="D62" s="97"/>
       <c r="E62" s="78"/>
-      <c r="F62" s="114"/>
-      <c r="G62" s="115"/>
-      <c r="H62" s="116"/>
+      <c r="F62" s="110"/>
+      <c r="G62" s="111"/>
+      <c r="H62" s="112"/>
       <c r="I62" s="70"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -6611,9 +6598,9 @@
       </c>
       <c r="D63" s="97"/>
       <c r="E63" s="78"/>
-      <c r="F63" s="114"/>
-      <c r="G63" s="115"/>
-      <c r="H63" s="116"/>
+      <c r="F63" s="110"/>
+      <c r="G63" s="111"/>
+      <c r="H63" s="112"/>
       <c r="I63" s="70"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -6628,9 +6615,9 @@
       </c>
       <c r="D64" s="97"/>
       <c r="E64" s="78"/>
-      <c r="F64" s="114"/>
-      <c r="G64" s="115"/>
-      <c r="H64" s="116"/>
+      <c r="F64" s="110"/>
+      <c r="G64" s="111"/>
+      <c r="H64" s="112"/>
       <c r="I64" s="70"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -6645,56 +6632,13 @@
       </c>
       <c r="D65" s="97"/>
       <c r="E65" s="78"/>
-      <c r="F65" s="114"/>
-      <c r="G65" s="115"/>
-      <c r="H65" s="116"/>
+      <c r="F65" s="110"/>
+      <c r="G65" s="111"/>
+      <c r="H65" s="112"/>
       <c r="I65" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="F57:H57"/>
-    <mergeCell ref="F64:H64"/>
-    <mergeCell ref="F65:H65"/>
-    <mergeCell ref="F61:H61"/>
-    <mergeCell ref="F62:H62"/>
-    <mergeCell ref="F63:H63"/>
-    <mergeCell ref="F60:H60"/>
-    <mergeCell ref="A59:I59"/>
-    <mergeCell ref="F55:H55"/>
-    <mergeCell ref="F56:H56"/>
-    <mergeCell ref="F51:H51"/>
-    <mergeCell ref="F52:H52"/>
-    <mergeCell ref="F53:H53"/>
-    <mergeCell ref="F54:H54"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="A46:I46"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="A26:I26"/>
-    <mergeCell ref="A49:I49"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="F30:H30"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="F3:H3"/>
@@ -6711,6 +6655,49 @@
     <mergeCell ref="F23:H23"/>
     <mergeCell ref="F22:H22"/>
     <mergeCell ref="F11:H11"/>
+    <mergeCell ref="A46:I46"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="A49:I49"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="F55:H55"/>
+    <mergeCell ref="F56:H56"/>
+    <mergeCell ref="F51:H51"/>
+    <mergeCell ref="F52:H52"/>
+    <mergeCell ref="F53:H53"/>
+    <mergeCell ref="F54:H54"/>
+    <mergeCell ref="F57:H57"/>
+    <mergeCell ref="F64:H64"/>
+    <mergeCell ref="F65:H65"/>
+    <mergeCell ref="F61:H61"/>
+    <mergeCell ref="F62:H62"/>
+    <mergeCell ref="F63:H63"/>
+    <mergeCell ref="F60:H60"/>
+    <mergeCell ref="A59:I59"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
@@ -7339,22 +7326,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="28.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="119" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="110"/>
+      <c r="B1" s="119"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="122" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="69" t="s">
@@ -7372,11 +7359,11 @@
       <c r="E3" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="122" t="s">
+      <c r="F3" s="121" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="122"/>
-      <c r="H3" s="122"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="121"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="74">
@@ -7390,9 +7377,9 @@
       <c r="E4" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="114"/>
-      <c r="G4" s="115"/>
-      <c r="H4" s="116"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="112"/>
     </row>
     <row r="5" spans="1:8" ht="27.35" x14ac:dyDescent="0.25">
       <c r="A5" s="74">
@@ -7406,9 +7393,9 @@
       <c r="E5" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="114"/>
-      <c r="G5" s="115"/>
-      <c r="H5" s="116"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="111"/>
+      <c r="H5" s="112"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="74">
@@ -7422,9 +7409,9 @@
       <c r="E6" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="114"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="116"/>
+      <c r="F6" s="110"/>
+      <c r="G6" s="111"/>
+      <c r="H6" s="112"/>
     </row>
     <row r="7" spans="1:8" ht="27.35" x14ac:dyDescent="0.25">
       <c r="A7" s="74">
@@ -7438,9 +7425,9 @@
       <c r="E7" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="114"/>
-      <c r="G7" s="115"/>
-      <c r="H7" s="116"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="111"/>
+      <c r="H7" s="112"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="74">
@@ -7454,9 +7441,9 @@
       <c r="E8" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="114"/>
-      <c r="G8" s="115"/>
-      <c r="H8" s="116"/>
+      <c r="F8" s="110"/>
+      <c r="G8" s="111"/>
+      <c r="H8" s="112"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="74">
@@ -7470,9 +7457,9 @@
       <c r="E9" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="114"/>
-      <c r="G9" s="115"/>
-      <c r="H9" s="116"/>
+      <c r="F9" s="110"/>
+      <c r="G9" s="111"/>
+      <c r="H9" s="112"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="74">
@@ -7486,9 +7473,9 @@
       <c r="E10" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="114"/>
-      <c r="G10" s="115"/>
-      <c r="H10" s="116"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="111"/>
+      <c r="H10" s="112"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="74">
@@ -7502,9 +7489,9 @@
       <c r="E11" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="114"/>
-      <c r="G11" s="115"/>
-      <c r="H11" s="116"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="111"/>
+      <c r="H11" s="112"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="74">
@@ -7518,9 +7505,9 @@
       <c r="E12" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="114"/>
-      <c r="G12" s="115"/>
-      <c r="H12" s="116"/>
+      <c r="F12" s="110"/>
+      <c r="G12" s="111"/>
+      <c r="H12" s="112"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="74">
@@ -7534,9 +7521,9 @@
       <c r="E13" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="133"/>
-      <c r="G13" s="133"/>
-      <c r="H13" s="133"/>
+      <c r="F13" s="136"/>
+      <c r="G13" s="136"/>
+      <c r="H13" s="136"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="74">
@@ -7550,9 +7537,9 @@
       <c r="E14" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="133"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="133"/>
+      <c r="F14" s="136"/>
+      <c r="G14" s="136"/>
+      <c r="H14" s="136"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="74">
@@ -7566,9 +7553,9 @@
       <c r="E15" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="133"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="133"/>
+      <c r="F15" s="136"/>
+      <c r="G15" s="136"/>
+      <c r="H15" s="136"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="74">
@@ -7582,9 +7569,9 @@
       <c r="E16" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="133"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="133"/>
+      <c r="F16" s="136"/>
+      <c r="G16" s="136"/>
+      <c r="H16" s="136"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="74">
@@ -7598,9 +7585,9 @@
       <c r="E17" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="133"/>
-      <c r="G17" s="133"/>
-      <c r="H17" s="133"/>
+      <c r="F17" s="136"/>
+      <c r="G17" s="136"/>
+      <c r="H17" s="136"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="126" t="s">
@@ -7648,9 +7635,9 @@
       <c r="E21" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="134"/>
-      <c r="G21" s="135"/>
-      <c r="H21" s="136"/>
+      <c r="F21" s="133"/>
+      <c r="G21" s="134"/>
+      <c r="H21" s="135"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="126" t="s">
@@ -7698,21 +7685,21 @@
       <c r="E25" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F25" s="134"/>
-      <c r="G25" s="135"/>
-      <c r="H25" s="136"/>
+      <c r="F25" s="133"/>
+      <c r="G25" s="134"/>
+      <c r="H25" s="135"/>
     </row>
     <row r="27" spans="1:8" s="76" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="121" t="s">
+      <c r="A27" s="122" t="s">
         <v>325</v>
       </c>
-      <c r="B27" s="121"/>
-      <c r="C27" s="121"/>
-      <c r="D27" s="121"/>
-      <c r="E27" s="121"/>
-      <c r="F27" s="121"/>
-      <c r="G27" s="121"/>
-      <c r="H27" s="121"/>
+      <c r="B27" s="122"/>
+      <c r="C27" s="122"/>
+      <c r="D27" s="122"/>
+      <c r="E27" s="122"/>
+      <c r="F27" s="122"/>
+      <c r="G27" s="122"/>
+      <c r="H27" s="122"/>
     </row>
     <row r="28" spans="1:8" s="76" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="80" t="s">
@@ -7730,11 +7717,11 @@
       <c r="E28" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="122" t="s">
+      <c r="F28" s="121" t="s">
         <v>27</v>
       </c>
-      <c r="G28" s="122"/>
-      <c r="H28" s="122"/>
+      <c r="G28" s="121"/>
+      <c r="H28" s="121"/>
     </row>
     <row r="29" spans="1:8" s="76" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
@@ -7859,16 +7846,16 @@
       <c r="H36" s="78"/>
     </row>
     <row r="37" spans="1:8" s="76" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="121" t="s">
+      <c r="A37" s="122" t="s">
         <v>333</v>
       </c>
-      <c r="B37" s="121"/>
-      <c r="C37" s="121"/>
-      <c r="D37" s="121"/>
-      <c r="E37" s="121"/>
-      <c r="F37" s="121"/>
-      <c r="G37" s="121"/>
-      <c r="H37" s="121"/>
+      <c r="B37" s="122"/>
+      <c r="C37" s="122"/>
+      <c r="D37" s="122"/>
+      <c r="E37" s="122"/>
+      <c r="F37" s="122"/>
+      <c r="G37" s="122"/>
+      <c r="H37" s="122"/>
     </row>
     <row r="38" spans="1:8" s="76" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="80" t="s">
@@ -7886,11 +7873,11 @@
       <c r="E38" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="F38" s="122" t="s">
+      <c r="F38" s="121" t="s">
         <v>27</v>
       </c>
-      <c r="G38" s="122"/>
-      <c r="H38" s="122"/>
+      <c r="G38" s="121"/>
+      <c r="H38" s="121"/>
     </row>
     <row r="39" spans="1:8" s="76" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
@@ -7982,16 +7969,16 @@
       <c r="H44" s="78"/>
     </row>
     <row r="45" spans="1:8" s="76" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="121" t="s">
+      <c r="A45" s="122" t="s">
         <v>339</v>
       </c>
-      <c r="B45" s="121"/>
-      <c r="C45" s="121"/>
-      <c r="D45" s="121"/>
-      <c r="E45" s="121"/>
-      <c r="F45" s="121"/>
-      <c r="G45" s="121"/>
-      <c r="H45" s="121"/>
+      <c r="B45" s="122"/>
+      <c r="C45" s="122"/>
+      <c r="D45" s="122"/>
+      <c r="E45" s="122"/>
+      <c r="F45" s="122"/>
+      <c r="G45" s="122"/>
+      <c r="H45" s="122"/>
     </row>
     <row r="46" spans="1:8" s="76" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="80" t="s">
@@ -8009,11 +7996,11 @@
       <c r="E46" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="F46" s="122" t="s">
+      <c r="F46" s="121" t="s">
         <v>27</v>
       </c>
-      <c r="G46" s="122"/>
-      <c r="H46" s="122"/>
+      <c r="G46" s="121"/>
+      <c r="H46" s="121"/>
     </row>
     <row r="47" spans="1:8" s="76" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
@@ -8138,12 +8125,13 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="F46:H46"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="A37:H37"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="A45:H45"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="F7:H7"/>
     <mergeCell ref="A23:H23"/>
     <mergeCell ref="F24:H24"/>
     <mergeCell ref="F25:H25"/>
@@ -8160,13 +8148,12 @@
     <mergeCell ref="F13:H13"/>
     <mergeCell ref="F17:H17"/>
     <mergeCell ref="F14:H14"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="A37:H37"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="A45:H45"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8194,22 +8181,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="28.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="119" t="s">
         <v>397</v>
       </c>
-      <c r="B1" s="110"/>
+      <c r="B1" s="119"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="122" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="82" t="s">
@@ -8227,11 +8214,11 @@
       <c r="E3" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="122" t="s">
+      <c r="F3" s="121" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="122"/>
-      <c r="H3" s="122"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="121"/>
     </row>
     <row r="4" spans="1:8" ht="27.35" x14ac:dyDescent="0.25">
       <c r="A4" s="87">
@@ -8245,9 +8232,9 @@
       <c r="E4" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="134"/>
-      <c r="G4" s="135"/>
-      <c r="H4" s="136"/>
+      <c r="F4" s="133"/>
+      <c r="G4" s="134"/>
+      <c r="H4" s="135"/>
     </row>
     <row r="5" spans="1:8" ht="33.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="87">
@@ -8261,9 +8248,9 @@
       <c r="E5" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="134"/>
-      <c r="G5" s="135"/>
-      <c r="H5" s="136"/>
+      <c r="F5" s="133"/>
+      <c r="G5" s="134"/>
+      <c r="H5" s="135"/>
     </row>
     <row r="6" spans="1:8" ht="27.35" x14ac:dyDescent="0.25">
       <c r="A6" s="91">
@@ -8293,9 +8280,9 @@
       <c r="E7" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="134"/>
-      <c r="G7" s="135"/>
-      <c r="H7" s="136"/>
+      <c r="F7" s="133"/>
+      <c r="G7" s="134"/>
+      <c r="H7" s="135"/>
     </row>
     <row r="8" spans="1:8" ht="27.35" x14ac:dyDescent="0.25">
       <c r="A8" s="87">
@@ -8309,9 +8296,9 @@
       <c r="E8" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="134"/>
-      <c r="G8" s="135"/>
-      <c r="H8" s="136"/>
+      <c r="F8" s="133"/>
+      <c r="G8" s="134"/>
+      <c r="H8" s="135"/>
     </row>
     <row r="9" spans="1:8" ht="27.35" x14ac:dyDescent="0.25">
       <c r="A9" s="87">
@@ -8325,9 +8312,9 @@
       <c r="E9" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="134"/>
-      <c r="G9" s="135"/>
-      <c r="H9" s="136"/>
+      <c r="F9" s="133"/>
+      <c r="G9" s="134"/>
+      <c r="H9" s="135"/>
     </row>
     <row r="10" spans="1:8" ht="27.35" x14ac:dyDescent="0.25">
       <c r="A10" s="91">
@@ -8341,9 +8328,9 @@
       <c r="E10" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="134"/>
-      <c r="G10" s="135"/>
-      <c r="H10" s="136"/>
+      <c r="F10" s="133"/>
+      <c r="G10" s="134"/>
+      <c r="H10" s="135"/>
     </row>
     <row r="11" spans="1:8" ht="41.05" x14ac:dyDescent="0.25">
       <c r="A11" s="91">
@@ -8357,9 +8344,9 @@
       <c r="E11" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="134"/>
-      <c r="G11" s="135"/>
-      <c r="H11" s="136"/>
+      <c r="F11" s="133"/>
+      <c r="G11" s="134"/>
+      <c r="H11" s="135"/>
     </row>
     <row r="12" spans="1:8" ht="54.7" x14ac:dyDescent="0.25">
       <c r="A12" s="91">
@@ -8373,9 +8360,9 @@
       <c r="E12" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="134"/>
-      <c r="G12" s="135"/>
-      <c r="H12" s="136"/>
+      <c r="F12" s="133"/>
+      <c r="G12" s="134"/>
+      <c r="H12" s="135"/>
     </row>
     <row r="13" spans="1:8" ht="41.05" x14ac:dyDescent="0.25">
       <c r="A13" s="91">
@@ -8489,11 +8476,11 @@
       <c r="E20" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="122" t="s">
+      <c r="F20" s="121" t="s">
         <v>27</v>
       </c>
-      <c r="G20" s="122"/>
-      <c r="H20" s="122"/>
+      <c r="G20" s="121"/>
+      <c r="H20" s="121"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="87">
@@ -8507,9 +8494,9 @@
       <c r="E21" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="134"/>
-      <c r="G21" s="135"/>
-      <c r="H21" s="136"/>
+      <c r="F21" s="133"/>
+      <c r="G21" s="134"/>
+      <c r="H21" s="135"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
@@ -8528,16 +8515,16 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="121" t="s">
+      <c r="A24" s="122" t="s">
         <v>158</v>
       </c>
-      <c r="B24" s="121"/>
-      <c r="C24" s="121"/>
-      <c r="D24" s="121"/>
-      <c r="E24" s="121"/>
-      <c r="F24" s="121"/>
-      <c r="G24" s="121"/>
-      <c r="H24" s="121"/>
+      <c r="B24" s="122"/>
+      <c r="C24" s="122"/>
+      <c r="D24" s="122"/>
+      <c r="E24" s="122"/>
+      <c r="F24" s="122"/>
+      <c r="G24" s="122"/>
+      <c r="H24" s="122"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="82" t="s">
@@ -8555,11 +8542,11 @@
       <c r="E25" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="F25" s="122" t="s">
+      <c r="F25" s="121" t="s">
         <v>27</v>
       </c>
-      <c r="G25" s="122"/>
-      <c r="H25" s="122"/>
+      <c r="G25" s="121"/>
+      <c r="H25" s="121"/>
     </row>
     <row r="26" spans="1:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="83"/>
@@ -8571,9 +8558,9 @@
       <c r="E26" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="134"/>
-      <c r="G26" s="135"/>
-      <c r="H26" s="136"/>
+      <c r="F26" s="133"/>
+      <c r="G26" s="134"/>
+      <c r="H26" s="135"/>
     </row>
     <row r="27" spans="1:8" ht="60.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="83"/>
@@ -8581,12 +8568,19 @@
       <c r="C27" s="82"/>
       <c r="D27" s="78"/>
       <c r="E27" s="108"/>
-      <c r="F27" s="134"/>
-      <c r="G27" s="135"/>
-      <c r="H27" s="136"/>
+      <c r="F27" s="133"/>
+      <c r="G27" s="134"/>
+      <c r="H27" s="135"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="F25:H25"/>
     <mergeCell ref="F15:H15"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:H2"/>
@@ -8599,13 +8593,6 @@
     <mergeCell ref="F10:H10"/>
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="F12:H12"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="A24:H24"/>
-    <mergeCell ref="F25:H25"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8634,22 +8621,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="28.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="119" t="s">
         <v>162</v>
       </c>
-      <c r="B1" s="110"/>
+      <c r="B1" s="119"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="122" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="69" t="s">
@@ -8667,11 +8654,11 @@
       <c r="E3" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="122" t="s">
+      <c r="F3" s="121" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="122"/>
-      <c r="H3" s="122"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="121"/>
     </row>
     <row r="4" spans="1:8" ht="27.35" x14ac:dyDescent="0.25">
       <c r="A4" s="74">
@@ -8685,9 +8672,9 @@
       </c>
       <c r="D4" s="25"/>
       <c r="E4" s="25"/>
-      <c r="F4" s="134"/>
-      <c r="G4" s="135"/>
-      <c r="H4" s="136"/>
+      <c r="F4" s="133"/>
+      <c r="G4" s="134"/>
+      <c r="H4" s="135"/>
     </row>
     <row r="5" spans="1:8" ht="33.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="74">
@@ -8701,9 +8688,9 @@
       </c>
       <c r="D5" s="25"/>
       <c r="E5" s="25"/>
-      <c r="F5" s="134"/>
-      <c r="G5" s="135"/>
-      <c r="H5" s="136"/>
+      <c r="F5" s="133"/>
+      <c r="G5" s="134"/>
+      <c r="H5" s="135"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="74">
@@ -8717,9 +8704,9 @@
       </c>
       <c r="D6" s="25"/>
       <c r="E6" s="25"/>
-      <c r="F6" s="134"/>
-      <c r="G6" s="135"/>
-      <c r="H6" s="136"/>
+      <c r="F6" s="133"/>
+      <c r="G6" s="134"/>
+      <c r="H6" s="135"/>
     </row>
     <row r="7" spans="1:8" ht="41.05" x14ac:dyDescent="0.25">
       <c r="A7" s="74">
@@ -8733,9 +8720,9 @@
       </c>
       <c r="D7" s="25"/>
       <c r="E7" s="25"/>
-      <c r="F7" s="134"/>
-      <c r="G7" s="135"/>
-      <c r="H7" s="136"/>
+      <c r="F7" s="133"/>
+      <c r="G7" s="134"/>
+      <c r="H7" s="135"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="74">
@@ -8749,9 +8736,9 @@
       </c>
       <c r="D8" s="25"/>
       <c r="E8" s="25"/>
-      <c r="F8" s="134"/>
-      <c r="G8" s="135"/>
-      <c r="H8" s="136"/>
+      <c r="F8" s="133"/>
+      <c r="G8" s="134"/>
+      <c r="H8" s="135"/>
     </row>
     <row r="9" spans="1:8" ht="41.05" x14ac:dyDescent="0.25">
       <c r="A9" s="74">
@@ -8765,9 +8752,9 @@
       </c>
       <c r="D9" s="25"/>
       <c r="E9" s="25"/>
-      <c r="F9" s="134"/>
-      <c r="G9" s="135"/>
-      <c r="H9" s="136"/>
+      <c r="F9" s="133"/>
+      <c r="G9" s="134"/>
+      <c r="H9" s="135"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="74">
@@ -8781,9 +8768,9 @@
       </c>
       <c r="D10" s="25"/>
       <c r="E10" s="25"/>
-      <c r="F10" s="134"/>
-      <c r="G10" s="135"/>
-      <c r="H10" s="136"/>
+      <c r="F10" s="133"/>
+      <c r="G10" s="134"/>
+      <c r="H10" s="135"/>
     </row>
     <row r="11" spans="1:8" ht="41.05" x14ac:dyDescent="0.25">
       <c r="A11" s="74">
@@ -8797,9 +8784,9 @@
       </c>
       <c r="D11" s="25"/>
       <c r="E11" s="25"/>
-      <c r="F11" s="134"/>
-      <c r="G11" s="135"/>
-      <c r="H11" s="136"/>
+      <c r="F11" s="133"/>
+      <c r="G11" s="134"/>
+      <c r="H11" s="135"/>
     </row>
     <row r="12" spans="1:8" ht="27.35" x14ac:dyDescent="0.25">
       <c r="A12" s="74">
@@ -8881,11 +8868,11 @@
       <c r="E17" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="122" t="s">
+      <c r="F17" s="121" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="122"/>
-      <c r="H17" s="122"/>
+      <c r="G17" s="121"/>
+      <c r="H17" s="121"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="74">
@@ -8899,9 +8886,9 @@
       </c>
       <c r="D18" s="74"/>
       <c r="E18" s="74"/>
-      <c r="F18" s="134"/>
-      <c r="G18" s="135"/>
-      <c r="H18" s="136"/>
+      <c r="F18" s="133"/>
+      <c r="G18" s="134"/>
+      <c r="H18" s="135"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="74">
@@ -8915,21 +8902,21 @@
       </c>
       <c r="D19" s="25"/>
       <c r="E19" s="25"/>
-      <c r="F19" s="134"/>
-      <c r="G19" s="135"/>
-      <c r="H19" s="136"/>
+      <c r="F19" s="133"/>
+      <c r="G19" s="134"/>
+      <c r="H19" s="135"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="121" t="s">
+      <c r="A21" s="122" t="s">
         <v>158</v>
       </c>
-      <c r="B21" s="121"/>
-      <c r="C21" s="121"/>
-      <c r="D21" s="121"/>
-      <c r="E21" s="121"/>
-      <c r="F21" s="121"/>
-      <c r="G21" s="121"/>
-      <c r="H21" s="121"/>
+      <c r="B21" s="122"/>
+      <c r="C21" s="122"/>
+      <c r="D21" s="122"/>
+      <c r="E21" s="122"/>
+      <c r="F21" s="122"/>
+      <c r="G21" s="122"/>
+      <c r="H21" s="122"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="69" t="s">
@@ -8947,11 +8934,11 @@
       <c r="E22" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="F22" s="122" t="s">
+      <c r="F22" s="121" t="s">
         <v>27</v>
       </c>
-      <c r="G22" s="122"/>
-      <c r="H22" s="122"/>
+      <c r="G22" s="121"/>
+      <c r="H22" s="121"/>
     </row>
     <row r="23" spans="1:8" ht="27.35" x14ac:dyDescent="0.25">
       <c r="A23" s="70">
@@ -8965,9 +8952,9 @@
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
-      <c r="F23" s="134"/>
-      <c r="G23" s="135"/>
-      <c r="H23" s="136"/>
+      <c r="F23" s="133"/>
+      <c r="G23" s="134"/>
+      <c r="H23" s="135"/>
     </row>
     <row r="24" spans="1:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="70">
@@ -8981,9 +8968,9 @@
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
-      <c r="F24" s="134"/>
-      <c r="G24" s="135"/>
-      <c r="H24" s="136"/>
+      <c r="F24" s="133"/>
+      <c r="G24" s="134"/>
+      <c r="H24" s="135"/>
     </row>
     <row r="25" spans="1:8" ht="60.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="70">
@@ -8997,12 +8984,20 @@
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
-      <c r="F25" s="134"/>
-      <c r="G25" s="135"/>
-      <c r="H25" s="136"/>
+      <c r="F25" s="133"/>
+      <c r="G25" s="134"/>
+      <c r="H25" s="135"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="F24:H24"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A16:H16"/>
     <mergeCell ref="A2:H2"/>
@@ -9016,14 +9011,6 @@
     <mergeCell ref="F7:H7"/>
     <mergeCell ref="F8:H8"/>
     <mergeCell ref="F14:H14"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="F24:H24"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9047,10 +9034,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="28.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="119" t="s">
         <v>180</v>
       </c>
-      <c r="B1" s="110"/>
+      <c r="B1" s="119"/>
       <c r="C1" s="76"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -9059,16 +9046,16 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="122" t="s">
         <v>181</v>
       </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="69" t="s">
@@ -9086,11 +9073,11 @@
       <c r="E3" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="122" t="s">
+      <c r="F3" s="121" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="122"/>
-      <c r="H3" s="122"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="121"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="74">
@@ -9104,9 +9091,9 @@
       <c r="E4" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="134"/>
-      <c r="G4" s="135"/>
-      <c r="H4" s="136"/>
+      <c r="F4" s="133"/>
+      <c r="G4" s="134"/>
+      <c r="H4" s="135"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="74">
@@ -9120,9 +9107,9 @@
       <c r="E5" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="134"/>
-      <c r="G5" s="135"/>
-      <c r="H5" s="136"/>
+      <c r="F5" s="133"/>
+      <c r="G5" s="134"/>
+      <c r="H5" s="135"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="74">
@@ -9136,9 +9123,9 @@
       <c r="E6" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="134"/>
-      <c r="G6" s="135"/>
-      <c r="H6" s="136"/>
+      <c r="F6" s="133"/>
+      <c r="G6" s="134"/>
+      <c r="H6" s="135"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="74">
@@ -9152,9 +9139,9 @@
       <c r="E7" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="134"/>
-      <c r="G7" s="135"/>
-      <c r="H7" s="136"/>
+      <c r="F7" s="133"/>
+      <c r="G7" s="134"/>
+      <c r="H7" s="135"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="74">
@@ -9168,9 +9155,9 @@
       <c r="E8" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="134"/>
-      <c r="G8" s="135"/>
-      <c r="H8" s="136"/>
+      <c r="F8" s="133"/>
+      <c r="G8" s="134"/>
+      <c r="H8" s="135"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="74">
@@ -9184,9 +9171,9 @@
       <c r="E9" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="134"/>
-      <c r="G9" s="135"/>
-      <c r="H9" s="136"/>
+      <c r="F9" s="133"/>
+      <c r="G9" s="134"/>
+      <c r="H9" s="135"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="74">
@@ -9200,9 +9187,9 @@
       <c r="E10" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="134"/>
-      <c r="G10" s="135"/>
-      <c r="H10" s="136"/>
+      <c r="F10" s="133"/>
+      <c r="G10" s="134"/>
+      <c r="H10" s="135"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="74">
@@ -9216,21 +9203,21 @@
       <c r="E11" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="134"/>
-      <c r="G11" s="135"/>
-      <c r="H11" s="136"/>
+      <c r="F11" s="133"/>
+      <c r="G11" s="134"/>
+      <c r="H11" s="135"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="121" t="s">
+      <c r="A13" s="122" t="s">
         <v>190</v>
       </c>
-      <c r="B13" s="121"/>
-      <c r="C13" s="121"/>
-      <c r="D13" s="121"/>
-      <c r="E13" s="121"/>
-      <c r="F13" s="121"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="121"/>
+      <c r="B13" s="122"/>
+      <c r="C13" s="122"/>
+      <c r="D13" s="122"/>
+      <c r="E13" s="122"/>
+      <c r="F13" s="122"/>
+      <c r="G13" s="122"/>
+      <c r="H13" s="122"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="69" t="s">
@@ -9248,11 +9235,11 @@
       <c r="E14" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="122" t="s">
+      <c r="F14" s="121" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="122"/>
-      <c r="H14" s="122"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="121"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="74">
@@ -9266,9 +9253,9 @@
       <c r="E15" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="134"/>
-      <c r="G15" s="135"/>
-      <c r="H15" s="136"/>
+      <c r="F15" s="133"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="135"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="74">
@@ -9282,9 +9269,9 @@
       <c r="E16" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="134"/>
-      <c r="G16" s="135"/>
-      <c r="H16" s="136"/>
+      <c r="F16" s="133"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="135"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="74">
@@ -9298,9 +9285,9 @@
       <c r="E17" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="134"/>
-      <c r="G17" s="135"/>
-      <c r="H17" s="136"/>
+      <c r="F17" s="133"/>
+      <c r="G17" s="134"/>
+      <c r="H17" s="135"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="74">
@@ -9314,9 +9301,9 @@
       <c r="E18" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F18" s="134"/>
-      <c r="G18" s="135"/>
-      <c r="H18" s="136"/>
+      <c r="F18" s="133"/>
+      <c r="G18" s="134"/>
+      <c r="H18" s="135"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="74">
@@ -9330,9 +9317,9 @@
       <c r="E19" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="134"/>
-      <c r="G19" s="135"/>
-      <c r="H19" s="136"/>
+      <c r="F19" s="133"/>
+      <c r="G19" s="134"/>
+      <c r="H19" s="135"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="74">
@@ -9346,9 +9333,9 @@
       <c r="E20" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="134"/>
-      <c r="G20" s="135"/>
-      <c r="H20" s="136"/>
+      <c r="F20" s="133"/>
+      <c r="G20" s="134"/>
+      <c r="H20" s="135"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="74">
@@ -9362,9 +9349,9 @@
       <c r="E21" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="134"/>
-      <c r="G21" s="135"/>
-      <c r="H21" s="136"/>
+      <c r="F21" s="133"/>
+      <c r="G21" s="134"/>
+      <c r="H21" s="135"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="74">
@@ -9378,9 +9365,9 @@
       <c r="E22" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F22" s="134"/>
-      <c r="G22" s="135"/>
-      <c r="H22" s="136"/>
+      <c r="F22" s="133"/>
+      <c r="G22" s="134"/>
+      <c r="H22" s="135"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="74">
@@ -9394,9 +9381,9 @@
       <c r="E23" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F23" s="134"/>
-      <c r="G23" s="135"/>
-      <c r="H23" s="136"/>
+      <c r="F23" s="133"/>
+      <c r="G23" s="134"/>
+      <c r="H23" s="135"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="74">
@@ -9410,9 +9397,9 @@
       <c r="E24" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="134"/>
-      <c r="G24" s="135"/>
-      <c r="H24" s="136"/>
+      <c r="F24" s="133"/>
+      <c r="G24" s="134"/>
+      <c r="H24" s="135"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="74">
@@ -9426,9 +9413,9 @@
       <c r="E25" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F25" s="134"/>
-      <c r="G25" s="135"/>
-      <c r="H25" s="136"/>
+      <c r="F25" s="133"/>
+      <c r="G25" s="134"/>
+      <c r="H25" s="135"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="74">
@@ -9442,9 +9429,9 @@
       <c r="E26" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="134"/>
-      <c r="G26" s="135"/>
-      <c r="H26" s="136"/>
+      <c r="F26" s="133"/>
+      <c r="G26" s="134"/>
+      <c r="H26" s="135"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="126" t="s">
@@ -9474,11 +9461,11 @@
       <c r="E29" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="F29" s="122" t="s">
+      <c r="F29" s="121" t="s">
         <v>27</v>
       </c>
-      <c r="G29" s="122"/>
-      <c r="H29" s="122"/>
+      <c r="G29" s="121"/>
+      <c r="H29" s="121"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="74">
@@ -9492,9 +9479,9 @@
       <c r="E30" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F30" s="134"/>
-      <c r="G30" s="135"/>
-      <c r="H30" s="136"/>
+      <c r="F30" s="133"/>
+      <c r="G30" s="134"/>
+      <c r="H30" s="135"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="74">
@@ -9508,21 +9495,21 @@
       <c r="E31" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F31" s="134"/>
-      <c r="G31" s="135"/>
-      <c r="H31" s="136"/>
+      <c r="F31" s="133"/>
+      <c r="G31" s="134"/>
+      <c r="H31" s="135"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="121" t="s">
+      <c r="A33" s="122" t="s">
         <v>206</v>
       </c>
-      <c r="B33" s="121"/>
-      <c r="C33" s="121"/>
-      <c r="D33" s="121"/>
-      <c r="E33" s="121"/>
-      <c r="F33" s="121"/>
-      <c r="G33" s="121"/>
-      <c r="H33" s="121"/>
+      <c r="B33" s="122"/>
+      <c r="C33" s="122"/>
+      <c r="D33" s="122"/>
+      <c r="E33" s="122"/>
+      <c r="F33" s="122"/>
+      <c r="G33" s="122"/>
+      <c r="H33" s="122"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="69" t="s">
@@ -9540,11 +9527,11 @@
       <c r="E34" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="F34" s="122" t="s">
+      <c r="F34" s="121" t="s">
         <v>27</v>
       </c>
-      <c r="G34" s="122"/>
-      <c r="H34" s="122"/>
+      <c r="G34" s="121"/>
+      <c r="H34" s="121"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="74">
@@ -9558,9 +9545,9 @@
       <c r="E35" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F35" s="134"/>
-      <c r="G35" s="135"/>
-      <c r="H35" s="136"/>
+      <c r="F35" s="133"/>
+      <c r="G35" s="134"/>
+      <c r="H35" s="135"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="74">
@@ -9574,9 +9561,9 @@
       <c r="E36" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F36" s="134"/>
-      <c r="G36" s="135"/>
-      <c r="H36" s="136"/>
+      <c r="F36" s="133"/>
+      <c r="G36" s="134"/>
+      <c r="H36" s="135"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="74">
@@ -9590,21 +9577,21 @@
       <c r="E37" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F37" s="134"/>
-      <c r="G37" s="135"/>
-      <c r="H37" s="136"/>
+      <c r="F37" s="133"/>
+      <c r="G37" s="134"/>
+      <c r="H37" s="135"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="121" t="s">
+      <c r="A39" s="122" t="s">
         <v>210</v>
       </c>
-      <c r="B39" s="121"/>
-      <c r="C39" s="121"/>
-      <c r="D39" s="121"/>
-      <c r="E39" s="121"/>
-      <c r="F39" s="121"/>
-      <c r="G39" s="121"/>
-      <c r="H39" s="121"/>
+      <c r="B39" s="122"/>
+      <c r="C39" s="122"/>
+      <c r="D39" s="122"/>
+      <c r="E39" s="122"/>
+      <c r="F39" s="122"/>
+      <c r="G39" s="122"/>
+      <c r="H39" s="122"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="69" t="s">
@@ -9622,11 +9609,11 @@
       <c r="E40" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="F40" s="122" t="s">
+      <c r="F40" s="121" t="s">
         <v>27</v>
       </c>
-      <c r="G40" s="122"/>
-      <c r="H40" s="122"/>
+      <c r="G40" s="121"/>
+      <c r="H40" s="121"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="74">
@@ -9640,9 +9627,9 @@
       <c r="E41" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F41" s="134"/>
-      <c r="G41" s="135"/>
-      <c r="H41" s="136"/>
+      <c r="F41" s="133"/>
+      <c r="G41" s="134"/>
+      <c r="H41" s="135"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="74">
@@ -9656,21 +9643,21 @@
       <c r="E42" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F42" s="134"/>
-      <c r="G42" s="135"/>
-      <c r="H42" s="136"/>
+      <c r="F42" s="133"/>
+      <c r="G42" s="134"/>
+      <c r="H42" s="135"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="121" t="s">
+      <c r="A44" s="122" t="s">
         <v>213</v>
       </c>
-      <c r="B44" s="121"/>
-      <c r="C44" s="121"/>
-      <c r="D44" s="121"/>
-      <c r="E44" s="121"/>
-      <c r="F44" s="121"/>
-      <c r="G44" s="121"/>
-      <c r="H44" s="121"/>
+      <c r="B44" s="122"/>
+      <c r="C44" s="122"/>
+      <c r="D44" s="122"/>
+      <c r="E44" s="122"/>
+      <c r="F44" s="122"/>
+      <c r="G44" s="122"/>
+      <c r="H44" s="122"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="69" t="s">
@@ -9688,11 +9675,11 @@
       <c r="E45" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="F45" s="122" t="s">
+      <c r="F45" s="121" t="s">
         <v>27</v>
       </c>
-      <c r="G45" s="122"/>
-      <c r="H45" s="122"/>
+      <c r="G45" s="121"/>
+      <c r="H45" s="121"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="74">
@@ -9706,9 +9693,9 @@
       <c r="E46" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F46" s="134"/>
-      <c r="G46" s="135"/>
-      <c r="H46" s="136"/>
+      <c r="F46" s="133"/>
+      <c r="G46" s="134"/>
+      <c r="H46" s="135"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="74">
@@ -9722,9 +9709,9 @@
       <c r="E47" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F47" s="134"/>
-      <c r="G47" s="135"/>
-      <c r="H47" s="136"/>
+      <c r="F47" s="133"/>
+      <c r="G47" s="134"/>
+      <c r="H47" s="135"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="74">
@@ -9738,9 +9725,9 @@
       <c r="E48" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F48" s="134"/>
-      <c r="G48" s="135"/>
-      <c r="H48" s="136"/>
+      <c r="F48" s="133"/>
+      <c r="G48" s="134"/>
+      <c r="H48" s="135"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="74">
@@ -9754,9 +9741,9 @@
       <c r="E49" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F49" s="134"/>
-      <c r="G49" s="135"/>
-      <c r="H49" s="136"/>
+      <c r="F49" s="133"/>
+      <c r="G49" s="134"/>
+      <c r="H49" s="135"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="74">
@@ -9770,12 +9757,41 @@
       <c r="E50" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F50" s="134"/>
-      <c r="G50" s="135"/>
-      <c r="H50" s="136"/>
+      <c r="F50" s="133"/>
+      <c r="G50" s="134"/>
+      <c r="H50" s="135"/>
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="A44:H44"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="F48:H48"/>
+    <mergeCell ref="F49:H49"/>
+    <mergeCell ref="A39:H39"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="A33:H33"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:H2"/>
@@ -9792,35 +9808,6 @@
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="F17:H17"/>
     <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F49:H49"/>
-    <mergeCell ref="A39:H39"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="A28:H28"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="A44:H44"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="F46:H46"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="F48:H48"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9847,10 +9834,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="28.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="146" t="s">
         <v>219</v>
       </c>
-      <c r="B1" s="144"/>
+      <c r="B1" s="146"/>
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
       <c r="E1" s="22"/>
@@ -9859,16 +9846,16 @@
       <c r="H1" s="22"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="145" t="s">
+      <c r="A2" s="141" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="145"/>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="145"/>
+      <c r="B2" s="141"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="141"/>
+      <c r="G2" s="141"/>
+      <c r="H2" s="141"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="75" t="s">
@@ -9886,11 +9873,11 @@
       <c r="E3" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="143" t="s">
+      <c r="F3" s="142" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="143"/>
-      <c r="H3" s="143"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
     </row>
     <row r="4" spans="1:8" ht="54.7" x14ac:dyDescent="0.25">
       <c r="A4" s="29">
@@ -9904,21 +9891,21 @@
       <c r="E4" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="140"/>
-      <c r="G4" s="141"/>
-      <c r="H4" s="142"/>
+      <c r="F4" s="143"/>
+      <c r="G4" s="144"/>
+      <c r="H4" s="145"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="145" t="s">
+      <c r="A6" s="141" t="s">
         <v>222</v>
       </c>
-      <c r="B6" s="145"/>
-      <c r="C6" s="145"/>
-      <c r="D6" s="145"/>
-      <c r="E6" s="145"/>
-      <c r="F6" s="145"/>
-      <c r="G6" s="145"/>
-      <c r="H6" s="145"/>
+      <c r="B6" s="141"/>
+      <c r="C6" s="141"/>
+      <c r="D6" s="141"/>
+      <c r="E6" s="141"/>
+      <c r="F6" s="141"/>
+      <c r="G6" s="141"/>
+      <c r="H6" s="141"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="75" t="s">
@@ -9936,11 +9923,11 @@
       <c r="E7" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="143" t="s">
+      <c r="F7" s="142" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="143"/>
-      <c r="H7" s="143"/>
+      <c r="G7" s="142"/>
+      <c r="H7" s="142"/>
     </row>
     <row r="8" spans="1:8" ht="27.35" x14ac:dyDescent="0.25">
       <c r="A8" s="29">
@@ -9954,9 +9941,9 @@
       <c r="E8" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="140"/>
-      <c r="G8" s="141"/>
-      <c r="H8" s="142"/>
+      <c r="F8" s="143"/>
+      <c r="G8" s="144"/>
+      <c r="H8" s="145"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="29">
@@ -9970,21 +9957,21 @@
       <c r="E9" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="140"/>
-      <c r="G9" s="141"/>
-      <c r="H9" s="142"/>
+      <c r="F9" s="143"/>
+      <c r="G9" s="144"/>
+      <c r="H9" s="145"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="145" t="s">
+      <c r="A11" s="141" t="s">
         <v>225</v>
       </c>
-      <c r="B11" s="145"/>
-      <c r="C11" s="145"/>
-      <c r="D11" s="145"/>
-      <c r="E11" s="145"/>
-      <c r="F11" s="145"/>
-      <c r="G11" s="145"/>
-      <c r="H11" s="145"/>
+      <c r="B11" s="141"/>
+      <c r="C11" s="141"/>
+      <c r="D11" s="141"/>
+      <c r="E11" s="141"/>
+      <c r="F11" s="141"/>
+      <c r="G11" s="141"/>
+      <c r="H11" s="141"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="75" t="s">
@@ -10002,11 +9989,11 @@
       <c r="E12" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="143" t="s">
+      <c r="F12" s="142" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="143"/>
-      <c r="H12" s="143"/>
+      <c r="G12" s="142"/>
+      <c r="H12" s="142"/>
     </row>
     <row r="13" spans="1:8" ht="27.35" x14ac:dyDescent="0.25">
       <c r="A13" s="29">
@@ -10020,9 +10007,9 @@
       <c r="E13" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="140"/>
-      <c r="G13" s="141"/>
-      <c r="H13" s="142"/>
+      <c r="F13" s="143"/>
+      <c r="G13" s="144"/>
+      <c r="H13" s="145"/>
     </row>
     <row r="14" spans="1:8" ht="27.35" x14ac:dyDescent="0.25">
       <c r="A14" s="29">
@@ -10036,9 +10023,9 @@
       <c r="E14" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="140"/>
-      <c r="G14" s="141"/>
-      <c r="H14" s="142"/>
+      <c r="F14" s="143"/>
+      <c r="G14" s="144"/>
+      <c r="H14" s="145"/>
     </row>
     <row r="15" spans="1:8" ht="27.35" x14ac:dyDescent="0.25">
       <c r="A15" s="29">
@@ -10052,9 +10039,9 @@
       <c r="E15" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="140"/>
-      <c r="G15" s="141"/>
-      <c r="H15" s="142"/>
+      <c r="F15" s="143"/>
+      <c r="G15" s="144"/>
+      <c r="H15" s="145"/>
     </row>
     <row r="16" spans="1:8" ht="27.35" x14ac:dyDescent="0.25">
       <c r="A16" s="29">
@@ -10068,9 +10055,9 @@
       <c r="E16" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="140"/>
-      <c r="G16" s="141"/>
-      <c r="H16" s="142"/>
+      <c r="F16" s="143"/>
+      <c r="G16" s="144"/>
+      <c r="H16" s="145"/>
     </row>
     <row r="17" spans="1:8" ht="27.35" x14ac:dyDescent="0.25">
       <c r="A17" s="29">
@@ -10084,21 +10071,21 @@
       <c r="E17" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="146"/>
-      <c r="G17" s="146"/>
-      <c r="H17" s="146"/>
+      <c r="F17" s="140"/>
+      <c r="G17" s="140"/>
+      <c r="H17" s="140"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="145" t="s">
+      <c r="A19" s="141" t="s">
         <v>231</v>
       </c>
-      <c r="B19" s="145"/>
-      <c r="C19" s="145"/>
-      <c r="D19" s="145"/>
-      <c r="E19" s="145"/>
-      <c r="F19" s="145"/>
-      <c r="G19" s="145"/>
-      <c r="H19" s="145"/>
+      <c r="B19" s="141"/>
+      <c r="C19" s="141"/>
+      <c r="D19" s="141"/>
+      <c r="E19" s="141"/>
+      <c r="F19" s="141"/>
+      <c r="G19" s="141"/>
+      <c r="H19" s="141"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="75" t="s">
@@ -10116,11 +10103,11 @@
       <c r="E20" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="143" t="s">
+      <c r="F20" s="142" t="s">
         <v>27</v>
       </c>
-      <c r="G20" s="143"/>
-      <c r="H20" s="143"/>
+      <c r="G20" s="142"/>
+      <c r="H20" s="142"/>
     </row>
     <row r="21" spans="1:8" ht="27.35" x14ac:dyDescent="0.25">
       <c r="A21" s="29">
@@ -10134,9 +10121,9 @@
       <c r="E21" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="140"/>
-      <c r="G21" s="141"/>
-      <c r="H21" s="142"/>
+      <c r="F21" s="143"/>
+      <c r="G21" s="144"/>
+      <c r="H21" s="145"/>
     </row>
     <row r="22" spans="1:8" ht="109.4" x14ac:dyDescent="0.25">
       <c r="A22" s="29">
@@ -10150,9 +10137,9 @@
       <c r="E22" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F22" s="140"/>
-      <c r="G22" s="141"/>
-      <c r="H22" s="142"/>
+      <c r="F22" s="143"/>
+      <c r="G22" s="144"/>
+      <c r="H22" s="145"/>
     </row>
     <row r="23" spans="1:8" ht="27.35" x14ac:dyDescent="0.25">
       <c r="A23" s="29">
@@ -10166,9 +10153,9 @@
       <c r="E23" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F23" s="146"/>
-      <c r="G23" s="146"/>
-      <c r="H23" s="146"/>
+      <c r="F23" s="140"/>
+      <c r="G23" s="140"/>
+      <c r="H23" s="140"/>
     </row>
     <row r="24" spans="1:8" ht="27.35" x14ac:dyDescent="0.25">
       <c r="A24" s="29">
@@ -10182,9 +10169,9 @@
       <c r="E24" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="146"/>
-      <c r="G24" s="146"/>
-      <c r="H24" s="146"/>
+      <c r="F24" s="140"/>
+      <c r="G24" s="140"/>
+      <c r="H24" s="140"/>
     </row>
     <row r="25" spans="1:8" ht="27.35" x14ac:dyDescent="0.25">
       <c r="A25" s="29">
@@ -10198,9 +10185,9 @@
       <c r="E25" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F25" s="146"/>
-      <c r="G25" s="146"/>
-      <c r="H25" s="146"/>
+      <c r="F25" s="140"/>
+      <c r="G25" s="140"/>
+      <c r="H25" s="140"/>
     </row>
     <row r="26" spans="1:8" ht="27.35" x14ac:dyDescent="0.25">
       <c r="A26" s="29">
@@ -10214,9 +10201,9 @@
       <c r="E26" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="146"/>
-      <c r="G26" s="146"/>
-      <c r="H26" s="146"/>
+      <c r="F26" s="140"/>
+      <c r="G26" s="140"/>
+      <c r="H26" s="140"/>
     </row>
     <row r="27" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="29">
@@ -10230,9 +10217,9 @@
       <c r="E27" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F27" s="146"/>
-      <c r="G27" s="146"/>
-      <c r="H27" s="146"/>
+      <c r="F27" s="140"/>
+      <c r="G27" s="140"/>
+      <c r="H27" s="140"/>
     </row>
     <row r="28" spans="1:8" ht="41.05" x14ac:dyDescent="0.25">
       <c r="A28" s="29">
@@ -10246,9 +10233,9 @@
       <c r="E28" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="146"/>
-      <c r="G28" s="146"/>
-      <c r="H28" s="146"/>
+      <c r="F28" s="140"/>
+      <c r="G28" s="140"/>
+      <c r="H28" s="140"/>
     </row>
     <row r="29" spans="1:8" ht="41.05" x14ac:dyDescent="0.25">
       <c r="A29" s="29">
@@ -10262,23 +10249,12 @@
       <c r="E29" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F29" s="146"/>
-      <c r="G29" s="146"/>
-      <c r="H29" s="146"/>
+      <c r="F29" s="140"/>
+      <c r="G29" s="140"/>
+      <c r="H29" s="140"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="F26:H26"/>
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="A1:B1"/>
@@ -10294,6 +10270,17 @@
     <mergeCell ref="F14:H14"/>
     <mergeCell ref="F15:H15"/>
     <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="F26:H26"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10332,16 +10319,16 @@
       <c r="H1" s="24"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="145" t="s">
+      <c r="A2" s="141" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="145"/>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="145"/>
+      <c r="B2" s="141"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="141"/>
+      <c r="G2" s="141"/>
+      <c r="H2" s="141"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="75" t="s">
@@ -10359,11 +10346,11 @@
       <c r="E3" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="143" t="s">
+      <c r="F3" s="142" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="143"/>
-      <c r="H3" s="143"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="29">
@@ -10377,9 +10364,9 @@
       <c r="E4" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="140"/>
-      <c r="G4" s="141"/>
-      <c r="H4" s="142"/>
+      <c r="F4" s="143"/>
+      <c r="G4" s="144"/>
+      <c r="H4" s="145"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="29">
@@ -10393,9 +10380,9 @@
       <c r="E5" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="140"/>
-      <c r="G5" s="141"/>
-      <c r="H5" s="142"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="145"/>
     </row>
     <row r="6" spans="1:8" ht="27.35" x14ac:dyDescent="0.25">
       <c r="A6" s="40">
@@ -10409,9 +10396,9 @@
       <c r="E6" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="140"/>
-      <c r="G6" s="141"/>
-      <c r="H6" s="142"/>
+      <c r="F6" s="143"/>
+      <c r="G6" s="144"/>
+      <c r="H6" s="145"/>
     </row>
     <row r="7" spans="1:8" ht="27.35" x14ac:dyDescent="0.25">
       <c r="A7" s="29">
@@ -10425,21 +10412,21 @@
       <c r="E7" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="140"/>
-      <c r="G7" s="141"/>
-      <c r="H7" s="142"/>
+      <c r="F7" s="143"/>
+      <c r="G7" s="144"/>
+      <c r="H7" s="145"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="145" t="s">
+      <c r="A9" s="141" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="145"/>
-      <c r="C9" s="145"/>
-      <c r="D9" s="145"/>
-      <c r="E9" s="145"/>
-      <c r="F9" s="145"/>
-      <c r="G9" s="145"/>
-      <c r="H9" s="145"/>
+      <c r="B9" s="141"/>
+      <c r="C9" s="141"/>
+      <c r="D9" s="141"/>
+      <c r="E9" s="141"/>
+      <c r="F9" s="141"/>
+      <c r="G9" s="141"/>
+      <c r="H9" s="141"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="75" t="s">
@@ -10457,11 +10444,11 @@
       <c r="E10" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="143" t="s">
+      <c r="F10" s="142" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="143"/>
-      <c r="H10" s="143"/>
+      <c r="G10" s="142"/>
+      <c r="H10" s="142"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="29">
@@ -10475,9 +10462,9 @@
       <c r="E11" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="146"/>
-      <c r="G11" s="146"/>
-      <c r="H11" s="146"/>
+      <c r="F11" s="140"/>
+      <c r="G11" s="140"/>
+      <c r="H11" s="140"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="29">
@@ -10491,9 +10478,9 @@
       <c r="E12" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="146"/>
-      <c r="G12" s="146"/>
-      <c r="H12" s="146"/>
+      <c r="F12" s="140"/>
+      <c r="G12" s="140"/>
+      <c r="H12" s="140"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="29">
@@ -10507,9 +10494,9 @@
       <c r="E13" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="146"/>
-      <c r="G13" s="146"/>
-      <c r="H13" s="146"/>
+      <c r="F13" s="140"/>
+      <c r="G13" s="140"/>
+      <c r="H13" s="140"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="29">
@@ -10523,9 +10510,9 @@
       <c r="E14" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="146"/>
-      <c r="G14" s="146"/>
-      <c r="H14" s="146"/>
+      <c r="F14" s="140"/>
+      <c r="G14" s="140"/>
+      <c r="H14" s="140"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="42">
@@ -10539,9 +10526,9 @@
       <c r="E15" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="146"/>
-      <c r="G15" s="146"/>
-      <c r="H15" s="146"/>
+      <c r="F15" s="140"/>
+      <c r="G15" s="140"/>
+      <c r="H15" s="140"/>
     </row>
     <row r="16" spans="1:8" ht="27.35" x14ac:dyDescent="0.25">
       <c r="A16" s="42">
@@ -10555,9 +10542,9 @@
       <c r="E16" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="146"/>
-      <c r="G16" s="146"/>
-      <c r="H16" s="146"/>
+      <c r="F16" s="140"/>
+      <c r="G16" s="140"/>
+      <c r="H16" s="140"/>
     </row>
     <row r="17" spans="1:8" ht="27.35" x14ac:dyDescent="0.25">
       <c r="A17" s="42">
@@ -10571,9 +10558,9 @@
       <c r="E17" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="146"/>
-      <c r="G17" s="146"/>
-      <c r="H17" s="146"/>
+      <c r="F17" s="140"/>
+      <c r="G17" s="140"/>
+      <c r="H17" s="140"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="42">
@@ -10587,21 +10574,21 @@
       <c r="E18" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F18" s="146"/>
-      <c r="G18" s="146"/>
-      <c r="H18" s="146"/>
+      <c r="F18" s="140"/>
+      <c r="G18" s="140"/>
+      <c r="H18" s="140"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="145" t="s">
+      <c r="A20" s="141" t="s">
         <v>254</v>
       </c>
-      <c r="B20" s="145"/>
-      <c r="C20" s="145"/>
-      <c r="D20" s="145"/>
-      <c r="E20" s="145"/>
-      <c r="F20" s="145"/>
-      <c r="G20" s="145"/>
-      <c r="H20" s="145"/>
+      <c r="B20" s="141"/>
+      <c r="C20" s="141"/>
+      <c r="D20" s="141"/>
+      <c r="E20" s="141"/>
+      <c r="F20" s="141"/>
+      <c r="G20" s="141"/>
+      <c r="H20" s="141"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="75" t="s">
@@ -10619,11 +10606,11 @@
       <c r="E21" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="143" t="s">
+      <c r="F21" s="142" t="s">
         <v>27</v>
       </c>
-      <c r="G21" s="143"/>
-      <c r="H21" s="143"/>
+      <c r="G21" s="142"/>
+      <c r="H21" s="142"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="29">
@@ -10637,21 +10624,21 @@
       <c r="E22" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F22" s="140"/>
-      <c r="G22" s="141"/>
-      <c r="H22" s="142"/>
+      <c r="F22" s="143"/>
+      <c r="G22" s="144"/>
+      <c r="H22" s="145"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="145" t="s">
+      <c r="A24" s="141" t="s">
         <v>222</v>
       </c>
-      <c r="B24" s="145"/>
-      <c r="C24" s="145"/>
-      <c r="D24" s="145"/>
-      <c r="E24" s="145"/>
-      <c r="F24" s="145"/>
-      <c r="G24" s="145"/>
-      <c r="H24" s="145"/>
+      <c r="B24" s="141"/>
+      <c r="C24" s="141"/>
+      <c r="D24" s="141"/>
+      <c r="E24" s="141"/>
+      <c r="F24" s="141"/>
+      <c r="G24" s="141"/>
+      <c r="H24" s="141"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="75" t="s">
@@ -10669,11 +10656,11 @@
       <c r="E25" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="F25" s="143" t="s">
+      <c r="F25" s="142" t="s">
         <v>27</v>
       </c>
-      <c r="G25" s="143"/>
-      <c r="H25" s="143"/>
+      <c r="G25" s="142"/>
+      <c r="H25" s="142"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="42">
@@ -10687,21 +10674,21 @@
       <c r="E26" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="140"/>
-      <c r="G26" s="141"/>
-      <c r="H26" s="142"/>
+      <c r="F26" s="143"/>
+      <c r="G26" s="144"/>
+      <c r="H26" s="145"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="145" t="s">
+      <c r="A28" s="141" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="145"/>
-      <c r="C28" s="145"/>
-      <c r="D28" s="145"/>
-      <c r="E28" s="145"/>
-      <c r="F28" s="145"/>
-      <c r="G28" s="145"/>
-      <c r="H28" s="145"/>
+      <c r="B28" s="141"/>
+      <c r="C28" s="141"/>
+      <c r="D28" s="141"/>
+      <c r="E28" s="141"/>
+      <c r="F28" s="141"/>
+      <c r="G28" s="141"/>
+      <c r="H28" s="141"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="75" t="s">
@@ -10719,11 +10706,11 @@
       <c r="E29" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="F29" s="143" t="s">
+      <c r="F29" s="142" t="s">
         <v>27</v>
       </c>
-      <c r="G29" s="143"/>
-      <c r="H29" s="143"/>
+      <c r="G29" s="142"/>
+      <c r="H29" s="142"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="42">
@@ -10737,9 +10724,9 @@
       <c r="E30" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F30" s="140"/>
-      <c r="G30" s="141"/>
-      <c r="H30" s="142"/>
+      <c r="F30" s="143"/>
+      <c r="G30" s="144"/>
+      <c r="H30" s="145"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="42">
@@ -10753,21 +10740,21 @@
       <c r="E31" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F31" s="140"/>
-      <c r="G31" s="141"/>
-      <c r="H31" s="142"/>
+      <c r="F31" s="143"/>
+      <c r="G31" s="144"/>
+      <c r="H31" s="145"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="145" t="s">
+      <c r="A33" s="141" t="s">
         <v>231</v>
       </c>
-      <c r="B33" s="145"/>
-      <c r="C33" s="145"/>
-      <c r="D33" s="145"/>
-      <c r="E33" s="145"/>
-      <c r="F33" s="145"/>
-      <c r="G33" s="145"/>
-      <c r="H33" s="145"/>
+      <c r="B33" s="141"/>
+      <c r="C33" s="141"/>
+      <c r="D33" s="141"/>
+      <c r="E33" s="141"/>
+      <c r="F33" s="141"/>
+      <c r="G33" s="141"/>
+      <c r="H33" s="141"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="75" t="s">
@@ -10785,11 +10772,11 @@
       <c r="E34" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="F34" s="143" t="s">
+      <c r="F34" s="142" t="s">
         <v>27</v>
       </c>
-      <c r="G34" s="143"/>
-      <c r="H34" s="143"/>
+      <c r="G34" s="142"/>
+      <c r="H34" s="142"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="42">
@@ -10851,9 +10838,9 @@
       <c r="E38" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F38" s="140"/>
-      <c r="G38" s="141"/>
-      <c r="H38" s="142"/>
+      <c r="F38" s="143"/>
+      <c r="G38" s="144"/>
+      <c r="H38" s="145"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="42">
@@ -10867,21 +10854,21 @@
       <c r="E39" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F39" s="146"/>
-      <c r="G39" s="146"/>
-      <c r="H39" s="146"/>
+      <c r="F39" s="140"/>
+      <c r="G39" s="140"/>
+      <c r="H39" s="140"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="145" t="s">
+      <c r="A41" s="141" t="s">
         <v>264</v>
       </c>
-      <c r="B41" s="145"/>
-      <c r="C41" s="145"/>
-      <c r="D41" s="145"/>
-      <c r="E41" s="145"/>
-      <c r="F41" s="145"/>
-      <c r="G41" s="145"/>
-      <c r="H41" s="145"/>
+      <c r="B41" s="141"/>
+      <c r="C41" s="141"/>
+      <c r="D41" s="141"/>
+      <c r="E41" s="141"/>
+      <c r="F41" s="141"/>
+      <c r="G41" s="141"/>
+      <c r="H41" s="141"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="75" t="s">
@@ -10899,11 +10886,11 @@
       <c r="E42" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="F42" s="143" t="s">
+      <c r="F42" s="142" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="143"/>
-      <c r="H42" s="143"/>
+      <c r="G42" s="142"/>
+      <c r="H42" s="142"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="42">
@@ -10917,9 +10904,9 @@
       <c r="E43" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F43" s="140"/>
-      <c r="G43" s="141"/>
-      <c r="H43" s="142"/>
+      <c r="F43" s="143"/>
+      <c r="G43" s="144"/>
+      <c r="H43" s="145"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="42">
@@ -10933,9 +10920,9 @@
       <c r="E44" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F44" s="140"/>
-      <c r="G44" s="141"/>
-      <c r="H44" s="142"/>
+      <c r="F44" s="143"/>
+      <c r="G44" s="144"/>
+      <c r="H44" s="145"/>
     </row>
     <row r="45" spans="1:8" ht="27.35" x14ac:dyDescent="0.25">
       <c r="A45" s="29">
@@ -10949,9 +10936,9 @@
       <c r="E45" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F45" s="140"/>
-      <c r="G45" s="141"/>
-      <c r="H45" s="142"/>
+      <c r="F45" s="143"/>
+      <c r="G45" s="144"/>
+      <c r="H45" s="145"/>
     </row>
     <row r="46" spans="1:8" ht="27.35" x14ac:dyDescent="0.25">
       <c r="A46" s="29">
@@ -10965,36 +10952,12 @@
       <c r="E46" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F46" s="140"/>
-      <c r="G46" s="141"/>
-      <c r="H46" s="142"/>
+      <c r="F46" s="143"/>
+      <c r="G46" s="144"/>
+      <c r="H46" s="145"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="F46:H46"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="A41:H41"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="A28:H28"/>
     <mergeCell ref="A33:H33"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="F3:H3"/>
@@ -11011,6 +10974,30 @@
     <mergeCell ref="A20:H20"/>
     <mergeCell ref="F21:H21"/>
     <mergeCell ref="F17:H17"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="F44:H44"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11019,18 +11006,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11148,6 +11135,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{038EC4EA-5804-43FE-9B98-16EE1445759C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75CC75B6-FA6A-410C-BA87-947D6406B62A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -11158,14 +11153,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{038EC4EA-5804-43FE-9B98-16EE1445759C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
